--- a/data/Spravochniki/R.xlsx
+++ b/data/Spravochniki/R.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Остапчук А.А\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RAO_Project\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82790407-9333-44E6-AFD8-68A416E24983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$F$1:$F$786</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$U$786</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="1720">
   <si>
     <t>Name_RN-Наименование радионуклида (рус)</t>
   </si>
@@ -5181,12 +5182,18 @@
   </si>
   <si>
     <t>криптон-85m</t>
+  </si>
+  <si>
+    <t>у</t>
+  </si>
+  <si>
+    <t>т</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5221,7 +5228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5498,11 +5505,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I793" sqref="I793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5578,7 +5586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5613,7 +5621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5686,7 +5694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5724,7 +5732,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -5915,7 +5923,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6053,7 +6061,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6097,7 +6105,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6150,7 +6158,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6203,7 +6211,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -6309,7 +6317,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6400,7 +6408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -6450,7 +6458,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6503,7 +6511,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -6609,7 +6617,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -6768,7 +6776,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -6874,7 +6882,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -6894,7 +6902,7 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I29">
         <v>93</v>
@@ -6924,7 +6932,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -6947,7 +6955,7 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I30">
         <v>94</v>
@@ -6977,7 +6985,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -7000,7 +7008,7 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I31">
         <v>94</v>
@@ -7030,7 +7038,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -7053,7 +7061,7 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I32">
         <v>94</v>
@@ -7083,7 +7091,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I33">
         <v>94</v>
@@ -7136,7 +7144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -7159,7 +7167,7 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I34">
         <v>94</v>
@@ -7189,7 +7197,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -7212,7 +7220,7 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I35">
         <v>94</v>
@@ -7242,7 +7250,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -7265,7 +7273,7 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I36">
         <v>95</v>
@@ -7295,7 +7303,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -7318,7 +7326,7 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I37">
         <v>95</v>
@@ -7348,7 +7356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -7371,7 +7379,7 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I38">
         <v>96</v>
@@ -7389,7 +7397,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7412,7 +7420,7 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I39">
         <v>96</v>
@@ -7442,7 +7450,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7465,7 +7473,7 @@
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I40">
         <v>96</v>
@@ -7495,7 +7503,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -7518,7 +7526,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I41">
         <v>96</v>
@@ -7548,7 +7556,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -7571,7 +7579,7 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I42">
         <v>96</v>
@@ -7601,7 +7609,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -7624,7 +7632,7 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I43">
         <v>96</v>
@@ -7654,7 +7662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -7677,7 +7685,7 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I44">
         <v>96</v>
@@ -7707,7 +7715,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -7730,7 +7738,7 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I45">
         <v>96</v>
@@ -7760,7 +7768,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -7780,7 +7788,7 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I46">
         <v>97</v>
@@ -7798,7 +7806,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I47">
         <v>98</v>
@@ -7833,7 +7841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -7853,7 +7861,7 @@
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I48">
         <v>98</v>
@@ -7880,7 +7888,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -7900,7 +7908,7 @@
         <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I49">
         <v>98</v>
@@ -7930,7 +7938,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -7950,7 +7958,7 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I50">
         <v>98</v>
@@ -7980,7 +7988,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I51">
         <v>98</v>
@@ -8030,7 +8038,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -8050,7 +8058,7 @@
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I52">
         <v>98</v>
@@ -8080,7 +8088,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -8100,7 +8108,7 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I53">
         <v>98</v>
@@ -8130,7 +8138,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -8150,7 +8158,7 @@
         <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I54">
         <v>99</v>
@@ -8177,7 +8185,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8197,7 +8205,7 @@
         <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I55">
         <v>99</v>
@@ -8224,7 +8232,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I56">
         <v>100</v>
@@ -8259,7 +8267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -8300,7 +8308,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -8320,7 +8328,7 @@
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I58">
         <v>100</v>
@@ -8341,7 +8349,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -8361,7 +8369,7 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I59">
         <v>100</v>
@@ -8376,7 +8384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -8396,7 +8404,7 @@
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I60">
         <v>101</v>
@@ -8431,7 +8439,7 @@
         <v>148</v>
       </c>
       <c r="H61" t="s">
-        <v>149</v>
+        <v>1719</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -8461,7 +8469,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -8499,7 +8507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -8537,7 +8545,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -8625,7 +8633,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -8660,7 +8668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -8736,7 +8744,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -8780,7 +8788,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -8818,7 +8826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -8868,7 +8876,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -8912,7 +8920,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -8950,7 +8958,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>177</v>
       </c>
@@ -8988,7 +8996,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -9035,7 +9043,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>181</v>
       </c>
@@ -9076,7 +9084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>183</v>
       </c>
@@ -9129,7 +9137,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -9182,7 +9190,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -9235,7 +9243,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>189</v>
       </c>
@@ -9288,7 +9296,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -9335,7 +9343,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>193</v>
       </c>
@@ -9373,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>195</v>
       </c>
@@ -9417,7 +9425,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -9467,7 +9475,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>199</v>
       </c>
@@ -9508,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>201</v>
       </c>
@@ -9561,7 +9569,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -9608,7 +9616,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -9655,7 +9663,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -9693,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>209</v>
       </c>
@@ -9731,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>211</v>
       </c>
@@ -9784,7 +9792,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>213</v>
       </c>
@@ -9837,7 +9845,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>217</v>
       </c>
@@ -9916,7 +9924,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -9969,7 +9977,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>221</v>
       </c>
@@ -10022,7 +10030,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -10113,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>227</v>
       </c>
@@ -10151,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>229</v>
       </c>
@@ -10189,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -10242,7 +10250,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -10280,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>235</v>
       </c>
@@ -10318,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -10362,7 +10370,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>239</v>
       </c>
@@ -10415,7 +10423,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>241</v>
       </c>
@@ -10459,7 +10467,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>244</v>
       </c>
@@ -10506,7 +10514,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>246</v>
       </c>
@@ -10553,7 +10561,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>248</v>
       </c>
@@ -10606,7 +10614,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>250</v>
       </c>
@@ -10647,7 +10655,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -10694,7 +10702,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>254</v>
       </c>
@@ -10744,7 +10752,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -10794,7 +10802,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -10847,7 +10855,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -10891,7 +10899,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -10935,7 +10943,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -10973,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -11026,7 +11034,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -11079,7 +11087,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -11126,7 +11134,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -11164,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -11202,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -11240,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -11287,7 +11295,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -11328,7 +11336,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -11366,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -11404,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -11457,7 +11465,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -11504,7 +11512,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -11542,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>294</v>
       </c>
@@ -11580,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -11618,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>298</v>
       </c>
@@ -11656,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>300</v>
       </c>
@@ -11697,7 +11705,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>302</v>
       </c>
@@ -11735,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -11782,7 +11790,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -11820,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>308</v>
       </c>
@@ -11858,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>310</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>312</v>
       </c>
@@ -11934,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>314</v>
       </c>
@@ -11972,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>316</v>
       </c>
@@ -12013,7 +12021,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>318</v>
       </c>
@@ -12051,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>320</v>
       </c>
@@ -12089,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>322</v>
       </c>
@@ -12127,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>324</v>
       </c>
@@ -12165,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>326</v>
       </c>
@@ -12206,7 +12214,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>328</v>
       </c>
@@ -12259,7 +12267,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>330</v>
       </c>
@@ -12312,7 +12320,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -12365,7 +12373,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>334</v>
       </c>
@@ -12403,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>336</v>
       </c>
@@ -12441,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>338</v>
       </c>
@@ -12479,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>340</v>
       </c>
@@ -12520,7 +12528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>342</v>
       </c>
@@ -12558,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>344</v>
       </c>
@@ -12596,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>346</v>
       </c>
@@ -12634,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>348</v>
       </c>
@@ -12672,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>351</v>
       </c>
@@ -12710,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>353</v>
       </c>
@@ -12751,7 +12759,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>355</v>
       </c>
@@ -12792,7 +12800,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>357</v>
       </c>
@@ -12830,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>359</v>
       </c>
@@ -12883,7 +12891,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>361</v>
       </c>
@@ -12921,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>363</v>
       </c>
@@ -12959,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>365</v>
       </c>
@@ -13009,7 +13017,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>367</v>
       </c>
@@ -13059,7 +13067,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>369</v>
       </c>
@@ -13109,7 +13117,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>372</v>
       </c>
@@ -13159,7 +13167,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>374</v>
       </c>
@@ -13206,7 +13214,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>376</v>
       </c>
@@ -13247,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>378</v>
       </c>
@@ -13285,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>380</v>
       </c>
@@ -13326,7 +13334,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>382</v>
       </c>
@@ -13364,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>385</v>
       </c>
@@ -13405,7 +13413,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>387</v>
       </c>
@@ -13458,7 +13466,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>389</v>
       </c>
@@ -13496,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>391</v>
       </c>
@@ -13534,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>393</v>
       </c>
@@ -13575,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>395</v>
       </c>
@@ -13616,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>397</v>
       </c>
@@ -13660,7 +13668,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>399</v>
       </c>
@@ -13701,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>401</v>
       </c>
@@ -13757,7 +13765,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -13813,7 +13821,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>405</v>
       </c>
@@ -13863,7 +13871,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>407</v>
       </c>
@@ -13913,7 +13921,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>409</v>
       </c>
@@ -13954,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>411</v>
       </c>
@@ -13998,7 +14006,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>413</v>
       </c>
@@ -14042,7 +14050,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>415</v>
       </c>
@@ -14098,7 +14106,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>417</v>
       </c>
@@ -14151,7 +14159,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>419</v>
       </c>
@@ -14198,7 +14206,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>421</v>
       </c>
@@ -14245,7 +14253,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>423</v>
       </c>
@@ -14283,7 +14291,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>425</v>
       </c>
@@ -14321,7 +14329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>427</v>
       </c>
@@ -14356,7 +14364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>429</v>
       </c>
@@ -14406,7 +14414,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>431</v>
       </c>
@@ -14456,7 +14464,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>433</v>
       </c>
@@ -14500,7 +14508,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>435</v>
       </c>
@@ -14535,7 +14543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>437</v>
       </c>
@@ -14570,7 +14578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>439</v>
       </c>
@@ -14608,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>441</v>
       </c>
@@ -14661,7 +14669,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>443</v>
       </c>
@@ -14714,7 +14722,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>445</v>
       </c>
@@ -14752,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>447</v>
       </c>
@@ -14799,7 +14807,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>449</v>
       </c>
@@ -14843,7 +14851,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>451</v>
       </c>
@@ -14887,7 +14895,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>453</v>
       </c>
@@ -14940,7 +14948,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>455</v>
       </c>
@@ -14984,7 +14992,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>457</v>
       </c>
@@ -15022,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>459</v>
       </c>
@@ -15060,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>461</v>
       </c>
@@ -15098,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>464</v>
       </c>
@@ -15136,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>466</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>469</v>
       </c>
@@ -15230,7 +15238,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>471</v>
       </c>
@@ -15271,7 +15279,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>473</v>
       </c>
@@ -15324,7 +15332,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>475</v>
       </c>
@@ -15362,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>477</v>
       </c>
@@ -15400,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>479</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>481</v>
       </c>
@@ -15500,7 +15508,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>483</v>
       </c>
@@ -15553,7 +15561,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>485</v>
       </c>
@@ -15594,7 +15602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>487</v>
       </c>
@@ -15632,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>490</v>
       </c>
@@ -15670,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>492</v>
       </c>
@@ -15711,7 +15719,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>494</v>
       </c>
@@ -15764,7 +15772,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>496</v>
       </c>
@@ -15802,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>499</v>
       </c>
@@ -15840,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>501</v>
       </c>
@@ -15878,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>503</v>
       </c>
@@ -15919,7 +15927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>505</v>
       </c>
@@ -15966,7 +15974,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>507</v>
       </c>
@@ -16004,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>509</v>
       </c>
@@ -16042,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>511</v>
       </c>
@@ -16080,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>513</v>
       </c>
@@ -16118,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>516</v>
       </c>
@@ -16171,7 +16179,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>518</v>
       </c>
@@ -16209,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>520</v>
       </c>
@@ -16247,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>523</v>
       </c>
@@ -16288,7 +16296,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>526</v>
       </c>
@@ -16341,7 +16349,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>528</v>
       </c>
@@ -16379,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>530</v>
       </c>
@@ -16417,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>532</v>
       </c>
@@ -16455,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>534</v>
       </c>
@@ -16493,7 +16501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>536</v>
       </c>
@@ -16531,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>538</v>
       </c>
@@ -16572,7 +16580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>541</v>
       </c>
@@ -16625,7 +16633,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>543</v>
       </c>
@@ -16678,7 +16686,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>546</v>
       </c>
@@ -16716,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>548</v>
       </c>
@@ -16754,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>551</v>
       </c>
@@ -16792,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>553</v>
       </c>
@@ -16830,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>555</v>
       </c>
@@ -16868,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>558</v>
       </c>
@@ -16906,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>560</v>
       </c>
@@ -16944,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>563</v>
       </c>
@@ -16982,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>565</v>
       </c>
@@ -17020,7 +17028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>568</v>
       </c>
@@ -17055,7 +17063,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>571</v>
       </c>
@@ -17090,7 +17098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>573</v>
       </c>
@@ -17140,7 +17148,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>575</v>
       </c>
@@ -17175,7 +17183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>577</v>
       </c>
@@ -17213,7 +17221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>579</v>
       </c>
@@ -17248,7 +17256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>582</v>
       </c>
@@ -17298,7 +17306,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>584</v>
       </c>
@@ -17336,7 +17344,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>586</v>
       </c>
@@ -17371,7 +17379,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>588</v>
       </c>
@@ -17406,7 +17414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>590</v>
       </c>
@@ -17441,7 +17449,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>592</v>
       </c>
@@ -17476,7 +17484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>594</v>
       </c>
@@ -17511,7 +17519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>597</v>
       </c>
@@ -17546,7 +17554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>599</v>
       </c>
@@ -17581,7 +17589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>602</v>
       </c>
@@ -17616,7 +17624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>604</v>
       </c>
@@ -17651,7 +17659,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>607</v>
       </c>
@@ -17701,7 +17709,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>609</v>
       </c>
@@ -17751,7 +17759,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>611</v>
       </c>
@@ -17801,7 +17809,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>613</v>
       </c>
@@ -17839,7 +17847,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>615</v>
       </c>
@@ -17874,7 +17882,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>618</v>
       </c>
@@ -17909,7 +17917,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>620</v>
       </c>
@@ -17944,7 +17952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>622</v>
       </c>
@@ -17979,7 +17987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>624</v>
       </c>
@@ -18014,7 +18022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>626</v>
       </c>
@@ -18049,7 +18057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>628</v>
       </c>
@@ -18084,7 +18092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>630</v>
       </c>
@@ -18128,7 +18136,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>632</v>
       </c>
@@ -18172,7 +18180,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>634</v>
       </c>
@@ -18213,7 +18221,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>636</v>
       </c>
@@ -18263,7 +18271,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>638</v>
       </c>
@@ -18304,7 +18312,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>640</v>
       </c>
@@ -18348,7 +18356,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>643</v>
       </c>
@@ -18389,7 +18397,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>645</v>
       </c>
@@ -18427,7 +18435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>647</v>
       </c>
@@ -18465,7 +18473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>650</v>
       </c>
@@ -18503,7 +18511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>652</v>
       </c>
@@ -18544,7 +18552,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>654</v>
       </c>
@@ -18600,7 +18608,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>656</v>
       </c>
@@ -18641,7 +18649,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>658</v>
       </c>
@@ -18694,7 +18702,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>660</v>
       </c>
@@ -18738,7 +18746,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>662</v>
       </c>
@@ -18791,7 +18799,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>664</v>
       </c>
@@ -18838,7 +18846,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>666</v>
       </c>
@@ -18888,7 +18896,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>668</v>
       </c>
@@ -18938,7 +18946,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>670</v>
       </c>
@@ -18988,7 +18996,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>672</v>
       </c>
@@ -19038,7 +19046,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>674</v>
       </c>
@@ -19088,7 +19096,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>676</v>
       </c>
@@ -19129,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>678</v>
       </c>
@@ -19170,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>680</v>
       </c>
@@ -19211,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>682</v>
       </c>
@@ -19252,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>684</v>
       </c>
@@ -19308,7 +19316,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>686</v>
       </c>
@@ -19349,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>688</v>
       </c>
@@ -19405,7 +19413,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>690</v>
       </c>
@@ -19461,7 +19469,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>692</v>
       </c>
@@ -19517,7 +19525,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>694</v>
       </c>
@@ -19573,7 +19581,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>696</v>
       </c>
@@ -19629,7 +19637,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>698</v>
       </c>
@@ -19676,7 +19684,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>700</v>
       </c>
@@ -19714,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>702</v>
       </c>
@@ -19752,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>704</v>
       </c>
@@ -19805,7 +19813,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>706</v>
       </c>
@@ -19843,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>708</v>
       </c>
@@ -19896,7 +19904,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>710</v>
       </c>
@@ -19934,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>712</v>
       </c>
@@ -19972,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>714</v>
       </c>
@@ -20010,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>716</v>
       </c>
@@ -20048,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>718</v>
       </c>
@@ -20086,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>720</v>
       </c>
@@ -20139,7 +20147,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>722</v>
       </c>
@@ -20177,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>724</v>
       </c>
@@ -20215,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>726</v>
       </c>
@@ -20253,7 +20261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>728</v>
       </c>
@@ -20291,7 +20299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>730</v>
       </c>
@@ -20344,7 +20352,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>732</v>
       </c>
@@ -20397,7 +20405,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>734</v>
       </c>
@@ -20450,7 +20458,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>736</v>
       </c>
@@ -20488,7 +20496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>738</v>
       </c>
@@ -20526,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>740</v>
       </c>
@@ -20564,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>743</v>
       </c>
@@ -20602,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>745</v>
       </c>
@@ -20649,7 +20657,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>747</v>
       </c>
@@ -20702,7 +20710,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>749</v>
       </c>
@@ -20740,7 +20748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>751</v>
       </c>
@@ -20778,7 +20786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>753</v>
       </c>
@@ -20816,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>755</v>
       </c>
@@ -20854,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>757</v>
       </c>
@@ -20892,7 +20900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>759</v>
       </c>
@@ -20927,7 +20935,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>761</v>
       </c>
@@ -20977,7 +20985,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>763</v>
       </c>
@@ -21021,7 +21029,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>765</v>
       </c>
@@ -21056,7 +21064,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>767</v>
       </c>
@@ -21091,7 +21099,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>769</v>
       </c>
@@ -21129,7 +21137,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>771</v>
       </c>
@@ -21179,7 +21187,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>773</v>
       </c>
@@ -21217,7 +21225,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>775</v>
       </c>
@@ -21255,7 +21263,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>778</v>
       </c>
@@ -21305,7 +21313,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>780</v>
       </c>
@@ -21340,7 +21348,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>782</v>
       </c>
@@ -21378,7 +21386,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>784</v>
       </c>
@@ -21413,7 +21421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>786</v>
       </c>
@@ -21448,7 +21456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>789</v>
       </c>
@@ -21483,7 +21491,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>791</v>
       </c>
@@ -21521,7 +21529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>793</v>
       </c>
@@ -21571,7 +21579,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>795</v>
       </c>
@@ -21621,7 +21629,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>797</v>
       </c>
@@ -21656,7 +21664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>799</v>
       </c>
@@ -21691,7 +21699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>801</v>
       </c>
@@ -21726,7 +21734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>803</v>
       </c>
@@ -21761,7 +21769,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>805</v>
       </c>
@@ -21799,7 +21807,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>807</v>
       </c>
@@ -21837,7 +21845,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>809</v>
       </c>
@@ -21875,7 +21883,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>812</v>
       </c>
@@ -21928,7 +21936,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>814</v>
       </c>
@@ -21975,7 +21983,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>817</v>
       </c>
@@ -22025,7 +22033,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>819</v>
       </c>
@@ -22075,7 +22083,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>821</v>
       </c>
@@ -22113,7 +22121,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>823</v>
       </c>
@@ -22148,7 +22156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>825</v>
       </c>
@@ -22183,7 +22191,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>827</v>
       </c>
@@ -22218,7 +22226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>829</v>
       </c>
@@ -22253,7 +22261,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>831</v>
       </c>
@@ -22288,7 +22296,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>833</v>
       </c>
@@ -22332,7 +22340,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>835</v>
       </c>
@@ -22367,7 +22375,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>837</v>
       </c>
@@ -22408,7 +22416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>839</v>
       </c>
@@ -22443,7 +22451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>841</v>
       </c>
@@ -22478,7 +22486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>843</v>
       </c>
@@ -22513,7 +22521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>845</v>
       </c>
@@ -22548,7 +22556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>847</v>
       </c>
@@ -22583,7 +22591,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>850</v>
       </c>
@@ -22633,7 +22641,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>852</v>
       </c>
@@ -22668,7 +22676,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>854</v>
       </c>
@@ -22703,7 +22711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>856</v>
       </c>
@@ -22747,7 +22755,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>858</v>
       </c>
@@ -22797,7 +22805,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>860</v>
       </c>
@@ -22832,7 +22840,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>862</v>
       </c>
@@ -22867,7 +22875,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>864</v>
       </c>
@@ -22902,7 +22910,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>866</v>
       </c>
@@ -22937,7 +22945,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>868</v>
       </c>
@@ -22987,7 +22995,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>870</v>
       </c>
@@ -23025,7 +23033,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>873</v>
       </c>
@@ -23060,7 +23068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>875</v>
       </c>
@@ -23095,7 +23103,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>877</v>
       </c>
@@ -23145,7 +23153,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>879</v>
       </c>
@@ -23192,7 +23200,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>881</v>
       </c>
@@ -23230,7 +23238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>883</v>
       </c>
@@ -23268,7 +23276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>885</v>
       </c>
@@ -23306,7 +23314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>887</v>
       </c>
@@ -23359,7 +23367,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>889</v>
       </c>
@@ -23412,7 +23420,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>891</v>
       </c>
@@ -23450,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>893</v>
       </c>
@@ -23488,7 +23496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>895</v>
       </c>
@@ -23526,7 +23534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>897</v>
       </c>
@@ -23564,7 +23572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>899</v>
       </c>
@@ -23602,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>901</v>
       </c>
@@ -23655,7 +23663,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>903</v>
       </c>
@@ -23693,7 +23701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>905</v>
       </c>
@@ -23731,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>907</v>
       </c>
@@ -23769,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>909</v>
       </c>
@@ -23807,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>911</v>
       </c>
@@ -23845,7 +23853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>913</v>
       </c>
@@ -23886,7 +23894,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>915</v>
       </c>
@@ -23924,7 +23932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>917</v>
       </c>
@@ -23962,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>920</v>
       </c>
@@ -24015,7 +24023,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>922</v>
       </c>
@@ -24053,7 +24061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>924</v>
       </c>
@@ -24091,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>927</v>
       </c>
@@ -24129,7 +24137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>929</v>
       </c>
@@ -24164,7 +24172,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>931</v>
       </c>
@@ -24214,7 +24222,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>933</v>
       </c>
@@ -24252,7 +24260,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>935</v>
       </c>
@@ -24290,7 +24298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>938</v>
       </c>
@@ -24325,7 +24333,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>940</v>
       </c>
@@ -24360,7 +24368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>942</v>
       </c>
@@ -24395,7 +24403,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>944</v>
       </c>
@@ -24430,7 +24438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>946</v>
       </c>
@@ -24465,7 +24473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>948</v>
       </c>
@@ -24500,7 +24508,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>950</v>
       </c>
@@ -24535,7 +24543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>952</v>
       </c>
@@ -24570,7 +24578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>954</v>
       </c>
@@ -24605,7 +24613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>956</v>
       </c>
@@ -24655,7 +24663,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>958</v>
       </c>
@@ -24690,7 +24698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>960</v>
       </c>
@@ -24725,7 +24733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>962</v>
       </c>
@@ -24760,7 +24768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>964</v>
       </c>
@@ -24795,7 +24803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>966</v>
       </c>
@@ -24830,7 +24838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>968</v>
       </c>
@@ -24880,7 +24888,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>970</v>
       </c>
@@ -24930,7 +24938,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>972</v>
       </c>
@@ -24974,7 +24982,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>974</v>
       </c>
@@ -25012,7 +25020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>976</v>
       </c>
@@ -25047,7 +25055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>978</v>
       </c>
@@ -25082,7 +25090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>980</v>
       </c>
@@ -25117,7 +25125,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>983</v>
       </c>
@@ -25167,7 +25175,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>985</v>
       </c>
@@ -25211,7 +25219,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>987</v>
       </c>
@@ -25249,7 +25257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>989</v>
       </c>
@@ -25287,7 +25295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>991</v>
       </c>
@@ -25340,7 +25348,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>993</v>
       </c>
@@ -25393,7 +25401,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>995</v>
       </c>
@@ -25434,7 +25442,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>997</v>
       </c>
@@ -25472,7 +25480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>999</v>
       </c>
@@ -25510,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1001</v>
       </c>
@@ -25548,7 +25556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1003</v>
       </c>
@@ -25586,7 +25594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1005</v>
       </c>
@@ -25624,7 +25632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1008</v>
       </c>
@@ -25662,7 +25670,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1011</v>
       </c>
@@ -25712,7 +25720,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1013</v>
       </c>
@@ -25756,7 +25764,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1015</v>
       </c>
@@ -25791,7 +25799,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1018</v>
       </c>
@@ -25826,7 +25834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1020</v>
       </c>
@@ -25861,7 +25869,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1023</v>
       </c>
@@ -25896,7 +25904,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1025</v>
       </c>
@@ -25940,7 +25948,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1027</v>
       </c>
@@ -25975,7 +25983,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1029</v>
       </c>
@@ -26010,7 +26018,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1031</v>
       </c>
@@ -26048,7 +26056,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1033</v>
       </c>
@@ -26086,7 +26094,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1035</v>
       </c>
@@ -26136,7 +26144,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1037</v>
       </c>
@@ -26186,7 +26194,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1039</v>
       </c>
@@ -26221,7 +26229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1041</v>
       </c>
@@ -26259,7 +26267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1044</v>
       </c>
@@ -26294,7 +26302,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1046</v>
       </c>
@@ -26329,7 +26337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1048</v>
       </c>
@@ -26367,7 +26375,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1051</v>
       </c>
@@ -26417,7 +26425,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1053</v>
       </c>
@@ -26452,7 +26460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1055</v>
       </c>
@@ -26487,7 +26495,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1058</v>
       </c>
@@ -26522,7 +26530,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1060</v>
       </c>
@@ -26557,7 +26565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1062</v>
       </c>
@@ -26592,7 +26600,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1064</v>
       </c>
@@ -26642,7 +26650,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1066</v>
       </c>
@@ -26692,7 +26700,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1068</v>
       </c>
@@ -26742,7 +26750,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1070</v>
       </c>
@@ -26777,7 +26785,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1073</v>
       </c>
@@ -26812,7 +26820,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1075</v>
       </c>
@@ -26850,7 +26858,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1077</v>
       </c>
@@ -26885,7 +26893,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1079</v>
       </c>
@@ -26935,7 +26943,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1081</v>
       </c>
@@ -26970,7 +26978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1083</v>
       </c>
@@ -27014,7 +27022,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1085</v>
       </c>
@@ -27049,7 +27057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1087</v>
       </c>
@@ -27084,7 +27092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1089</v>
       </c>
@@ -27119,7 +27127,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1091</v>
       </c>
@@ -27154,7 +27162,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1093</v>
       </c>
@@ -27189,7 +27197,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1095</v>
       </c>
@@ -27227,7 +27235,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1097</v>
       </c>
@@ -27277,7 +27285,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1099</v>
       </c>
@@ -27327,7 +27335,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1101</v>
       </c>
@@ -27377,7 +27385,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1103</v>
       </c>
@@ -27427,7 +27435,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1105</v>
       </c>
@@ -27462,7 +27470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1107</v>
       </c>
@@ -27497,7 +27505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1109</v>
       </c>
@@ -27538,7 +27546,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1111</v>
       </c>
@@ -27579,7 +27587,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1113</v>
       </c>
@@ -27620,7 +27628,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1115</v>
       </c>
@@ -27655,7 +27663,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1117</v>
       </c>
@@ -27690,7 +27698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1119</v>
       </c>
@@ -27725,7 +27733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1121</v>
       </c>
@@ -27775,7 +27783,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1123</v>
       </c>
@@ -27816,7 +27824,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1125</v>
       </c>
@@ -27866,7 +27874,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1127</v>
       </c>
@@ -27904,7 +27912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1129</v>
       </c>
@@ -27948,7 +27956,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1131</v>
       </c>
@@ -27992,7 +28000,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1133</v>
       </c>
@@ -28045,7 +28053,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1135</v>
       </c>
@@ -28098,7 +28106,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1137</v>
       </c>
@@ -28133,7 +28141,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1139</v>
       </c>
@@ -28183,7 +28191,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1141</v>
       </c>
@@ -28218,7 +28226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1143</v>
       </c>
@@ -28268,7 +28276,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1145</v>
       </c>
@@ -28312,7 +28320,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1147</v>
       </c>
@@ -28356,7 +28364,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1149</v>
       </c>
@@ -28376,7 +28384,7 @@
         <v>148</v>
       </c>
       <c r="H537" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I537">
         <v>93</v>
@@ -28391,7 +28399,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1151</v>
       </c>
@@ -28411,7 +28419,7 @@
         <v>148</v>
       </c>
       <c r="H538" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I538">
         <v>93</v>
@@ -28432,7 +28440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1154</v>
       </c>
@@ -28452,7 +28460,7 @@
         <v>148</v>
       </c>
       <c r="H539" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I539">
         <v>93</v>
@@ -28467,7 +28475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1156</v>
       </c>
@@ -28487,7 +28495,7 @@
         <v>148</v>
       </c>
       <c r="H540" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I540">
         <v>93</v>
@@ -28517,7 +28525,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1158</v>
       </c>
@@ -28537,7 +28545,7 @@
         <v>148</v>
       </c>
       <c r="H541" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I541">
         <v>93</v>
@@ -28558,7 +28566,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1160</v>
       </c>
@@ -28581,7 +28589,7 @@
         <v>148</v>
       </c>
       <c r="H542" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I542">
         <v>94</v>
@@ -28611,7 +28619,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1162</v>
       </c>
@@ -28634,7 +28642,7 @@
         <v>148</v>
       </c>
       <c r="H543" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I543">
         <v>94</v>
@@ -28655,7 +28663,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1164</v>
       </c>
@@ -28678,7 +28686,7 @@
         <v>148</v>
       </c>
       <c r="H544" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I544">
         <v>94</v>
@@ -28693,7 +28701,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1166</v>
       </c>
@@ -28716,7 +28724,7 @@
         <v>148</v>
       </c>
       <c r="H545" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I545">
         <v>94</v>
@@ -28731,7 +28739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1168</v>
       </c>
@@ -28754,7 +28762,7 @@
         <v>148</v>
       </c>
       <c r="H546" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I546">
         <v>95</v>
@@ -28775,7 +28783,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1170</v>
       </c>
@@ -28798,7 +28806,7 @@
         <v>148</v>
       </c>
       <c r="H547" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I547">
         <v>95</v>
@@ -28816,7 +28824,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1172</v>
       </c>
@@ -28839,7 +28847,7 @@
         <v>148</v>
       </c>
       <c r="H548" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I548">
         <v>95</v>
@@ -28854,7 +28862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1175</v>
       </c>
@@ -28877,7 +28885,7 @@
         <v>148</v>
       </c>
       <c r="H549" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I549">
         <v>95</v>
@@ -28892,7 +28900,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1177</v>
       </c>
@@ -28915,7 +28923,7 @@
         <v>148</v>
       </c>
       <c r="H550" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I550">
         <v>95</v>
@@ -28930,7 +28938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1179</v>
       </c>
@@ -28953,7 +28961,7 @@
         <v>148</v>
       </c>
       <c r="H551" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I551">
         <v>95</v>
@@ -28968,7 +28976,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1182</v>
       </c>
@@ -28991,7 +28999,7 @@
         <v>148</v>
       </c>
       <c r="H552" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I552">
         <v>96</v>
@@ -29006,7 +29014,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1184</v>
       </c>
@@ -29026,7 +29034,7 @@
         <v>148</v>
       </c>
       <c r="H553" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I553">
         <v>97</v>
@@ -29056,7 +29064,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1186</v>
       </c>
@@ -29076,7 +29084,7 @@
         <v>148</v>
       </c>
       <c r="H554" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I554">
         <v>97</v>
@@ -29091,7 +29099,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1188</v>
       </c>
@@ -29111,7 +29119,7 @@
         <v>148</v>
       </c>
       <c r="H555" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I555">
         <v>98</v>
@@ -29141,7 +29149,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1190</v>
       </c>
@@ -29161,7 +29169,7 @@
         <v>148</v>
       </c>
       <c r="H556" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I556">
         <v>99</v>
@@ -29188,7 +29196,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1192</v>
       </c>
@@ -29238,7 +29246,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1197</v>
       </c>
@@ -29288,7 +29296,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1199</v>
       </c>
@@ -29329,7 +29337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1201</v>
       </c>
@@ -29367,7 +29375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1206</v>
       </c>
@@ -29408,7 +29416,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1208</v>
       </c>
@@ -29449,7 +29457,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1210</v>
       </c>
@@ -29502,7 +29510,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1212</v>
       </c>
@@ -29555,7 +29563,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1214</v>
       </c>
@@ -29608,7 +29616,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1216</v>
       </c>
@@ -29661,7 +29669,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1218</v>
       </c>
@@ -29711,7 +29719,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1220</v>
       </c>
@@ -29758,7 +29766,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1223</v>
       </c>
@@ -29802,7 +29810,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1226</v>
       </c>
@@ -29840,7 +29848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1228</v>
       </c>
@@ -29887,7 +29895,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1231</v>
       </c>
@@ -29928,7 +29936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1233</v>
       </c>
@@ -29969,7 +29977,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1235</v>
       </c>
@@ -30022,7 +30030,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1237</v>
       </c>
@@ -30075,7 +30083,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1239</v>
       </c>
@@ -30113,7 +30121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1242</v>
       </c>
@@ -30166,7 +30174,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1244</v>
       </c>
@@ -30204,7 +30212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1247</v>
       </c>
@@ -30242,7 +30250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1250</v>
       </c>
@@ -30280,7 +30288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1253</v>
       </c>
@@ -30321,7 +30329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1255</v>
       </c>
@@ -30377,7 +30385,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1257</v>
       </c>
@@ -30427,7 +30435,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1260</v>
       </c>
@@ -30477,7 +30485,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1263</v>
       </c>
@@ -30518,7 +30526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1266</v>
       </c>
@@ -30556,7 +30564,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1269</v>
       </c>
@@ -30603,7 +30611,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1272</v>
       </c>
@@ -30638,7 +30646,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1274</v>
       </c>
@@ -30676,7 +30684,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1276</v>
       </c>
@@ -30711,7 +30719,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1279</v>
       </c>
@@ -30764,7 +30772,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1282</v>
       </c>
@@ -30802,7 +30810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1285</v>
       </c>
@@ -30855,7 +30863,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1287</v>
       </c>
@@ -30893,7 +30901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1290</v>
       </c>
@@ -30931,7 +30939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1293</v>
       </c>
@@ -30978,7 +30986,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1296</v>
       </c>
@@ -31031,7 +31039,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1298</v>
       </c>
@@ -31084,7 +31092,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1301</v>
       </c>
@@ -31131,7 +31139,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1304</v>
       </c>
@@ -31169,7 +31177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1306</v>
       </c>
@@ -31222,7 +31230,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1308</v>
       </c>
@@ -31263,7 +31271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1310</v>
       </c>
@@ -31301,7 +31309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1313</v>
       </c>
@@ -31342,7 +31350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1316</v>
       </c>
@@ -31389,7 +31397,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1319</v>
       </c>
@@ -31427,7 +31435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1321</v>
       </c>
@@ -31480,7 +31488,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1323</v>
       </c>
@@ -31533,7 +31541,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1326</v>
       </c>
@@ -31586,7 +31594,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1328</v>
       </c>
@@ -31639,7 +31647,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1330</v>
       </c>
@@ -31686,7 +31694,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1333</v>
       </c>
@@ -31739,7 +31747,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1336</v>
       </c>
@@ -31786,7 +31794,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1339</v>
       </c>
@@ -31821,7 +31829,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1341</v>
       </c>
@@ -31859,7 +31867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1344</v>
       </c>
@@ -31897,7 +31905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1347</v>
       </c>
@@ -31935,7 +31943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1350</v>
       </c>
@@ -31970,7 +31978,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1352</v>
       </c>
@@ -32008,7 +32016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1355</v>
       </c>
@@ -32043,7 +32051,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1358</v>
       </c>
@@ -32081,7 +32089,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1360</v>
       </c>
@@ -32119,7 +32127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1363</v>
       </c>
@@ -32154,7 +32162,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1365</v>
       </c>
@@ -32204,7 +32212,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1368</v>
       </c>
@@ -32254,7 +32262,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1371</v>
       </c>
@@ -32304,7 +32312,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1374</v>
       </c>
@@ -32357,7 +32365,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1377</v>
       </c>
@@ -32407,7 +32415,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1380</v>
       </c>
@@ -32454,7 +32462,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1382</v>
       </c>
@@ -32507,7 +32515,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1384</v>
       </c>
@@ -32545,7 +32553,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1387</v>
       </c>
@@ -32586,7 +32594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1390</v>
       </c>
@@ -32627,7 +32635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1393</v>
       </c>
@@ -32683,7 +32691,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1395</v>
       </c>
@@ -32733,7 +32741,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1398</v>
       </c>
@@ -32774,7 +32782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1401</v>
       </c>
@@ -32812,7 +32820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1404</v>
       </c>
@@ -32859,7 +32867,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1406</v>
       </c>
@@ -32900,7 +32908,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1409</v>
       </c>
@@ -32938,7 +32946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1412</v>
       </c>
@@ -32979,7 +32987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1414</v>
       </c>
@@ -33017,7 +33025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1416</v>
       </c>
@@ -33055,7 +33063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1418</v>
       </c>
@@ -33093,7 +33101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1420</v>
       </c>
@@ -33131,7 +33139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1423</v>
       </c>
@@ -33184,7 +33192,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1425</v>
       </c>
@@ -33222,7 +33230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1428</v>
       </c>
@@ -33260,7 +33268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1430</v>
       </c>
@@ -33298,7 +33306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1433</v>
       </c>
@@ -33336,7 +33344,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1435</v>
       </c>
@@ -33374,7 +33382,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1437</v>
       </c>
@@ -33412,7 +33420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1439</v>
       </c>
@@ -33450,7 +33458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1441</v>
       </c>
@@ -33485,7 +33493,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1443</v>
       </c>
@@ -33523,7 +33531,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1445</v>
       </c>
@@ -33558,7 +33566,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1447</v>
       </c>
@@ -33608,7 +33616,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1449</v>
       </c>
@@ -33643,7 +33651,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1451</v>
       </c>
@@ -33678,7 +33686,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1453</v>
       </c>
@@ -33713,7 +33721,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1456</v>
       </c>
@@ -33751,7 +33759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1458</v>
       </c>
@@ -33795,7 +33803,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1460</v>
       </c>
@@ -33830,7 +33838,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1462</v>
       </c>
@@ -33868,7 +33876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1464</v>
       </c>
@@ -33903,7 +33911,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1466</v>
       </c>
@@ -33944,7 +33952,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1469</v>
       </c>
@@ -33985,7 +33993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1471</v>
       </c>
@@ -34020,7 +34028,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1474</v>
       </c>
@@ -34055,7 +34063,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1476</v>
       </c>
@@ -34096,7 +34104,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1478</v>
       </c>
@@ -34134,7 +34142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1480</v>
       </c>
@@ -34175,7 +34183,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1482</v>
       </c>
@@ -34216,7 +34224,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1484</v>
       </c>
@@ -34257,7 +34265,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1486</v>
       </c>
@@ -34298,7 +34306,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1489</v>
       </c>
@@ -34336,7 +34344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1492</v>
       </c>
@@ -34374,7 +34382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1494</v>
       </c>
@@ -34412,7 +34420,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1496</v>
       </c>
@@ -34450,7 +34458,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1498</v>
       </c>
@@ -34485,7 +34493,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1501</v>
       </c>
@@ -34520,7 +34528,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1504</v>
       </c>
@@ -34555,7 +34563,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1507</v>
       </c>
@@ -34590,7 +34598,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1510</v>
       </c>
@@ -34628,7 +34636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1512</v>
       </c>
@@ -34669,7 +34677,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1514</v>
       </c>
@@ -34704,7 +34712,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1517</v>
       </c>
@@ -34739,7 +34747,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1520</v>
       </c>
@@ -34774,7 +34782,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1522</v>
       </c>
@@ -34812,7 +34820,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1524</v>
       </c>
@@ -34847,7 +34855,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1526</v>
       </c>
@@ -34882,7 +34890,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1528</v>
       </c>
@@ -34917,7 +34925,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1530</v>
       </c>
@@ -34955,7 +34963,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1532</v>
       </c>
@@ -34996,7 +35004,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1535</v>
       </c>
@@ -35037,7 +35045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1538</v>
       </c>
@@ -35072,7 +35080,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1541</v>
       </c>
@@ -35110,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1543</v>
       </c>
@@ -35148,7 +35156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1545</v>
       </c>
@@ -35201,7 +35209,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1547</v>
       </c>
@@ -35239,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1550</v>
       </c>
@@ -35286,7 +35294,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1553</v>
       </c>
@@ -35324,7 +35332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1555</v>
       </c>
@@ -35362,7 +35370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1557</v>
       </c>
@@ -35400,7 +35408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1559</v>
       </c>
@@ -35450,7 +35458,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1561</v>
       </c>
@@ -35485,7 +35493,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1564</v>
       </c>
@@ -35520,7 +35528,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1567</v>
       </c>
@@ -35555,7 +35563,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1570</v>
       </c>
@@ -35590,7 +35598,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1572</v>
       </c>
@@ -35628,7 +35636,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1574</v>
       </c>
@@ -35678,7 +35686,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1576</v>
       </c>
@@ -35716,7 +35724,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1578</v>
       </c>
@@ -35766,7 +35774,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1581</v>
       </c>
@@ -35804,7 +35812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1584</v>
       </c>
@@ -35848,7 +35856,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1587</v>
       </c>
@@ -35886,7 +35894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1589</v>
       </c>
@@ -35921,7 +35929,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1592</v>
       </c>
@@ -35959,7 +35967,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1594</v>
       </c>
@@ -35994,7 +36002,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1596</v>
       </c>
@@ -36035,7 +36043,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1599</v>
       </c>
@@ -36085,7 +36093,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1601</v>
       </c>
@@ -36132,7 +36140,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1604</v>
       </c>
@@ -36167,7 +36175,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1607</v>
       </c>
@@ -36202,7 +36210,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1610</v>
       </c>
@@ -36237,7 +36245,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1612</v>
       </c>
@@ -36287,7 +36295,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1614</v>
       </c>
@@ -36322,7 +36330,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1616</v>
       </c>
@@ -36357,7 +36365,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1618</v>
       </c>
@@ -36395,7 +36403,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1620</v>
       </c>
@@ -36433,7 +36441,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1623</v>
       </c>
@@ -36483,7 +36491,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1625</v>
       </c>
@@ -36521,7 +36529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1627</v>
       </c>
@@ -36562,7 +36570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1629</v>
       </c>
@@ -36603,7 +36611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1631</v>
       </c>
@@ -36659,7 +36667,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1633</v>
       </c>
@@ -36679,7 +36687,7 @@
         <v>1194</v>
       </c>
       <c r="H736" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I736">
         <v>93</v>
@@ -36694,7 +36702,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1635</v>
       </c>
@@ -36714,7 +36722,7 @@
         <v>1194</v>
       </c>
       <c r="H737" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I737">
         <v>93</v>
@@ -36729,7 +36737,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1637</v>
       </c>
@@ -36749,7 +36757,7 @@
         <v>1194</v>
       </c>
       <c r="H738" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I738">
         <v>93</v>
@@ -36767,7 +36775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1639</v>
       </c>
@@ -36787,7 +36795,7 @@
         <v>1194</v>
       </c>
       <c r="H739" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I739">
         <v>93</v>
@@ -36808,7 +36816,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1641</v>
       </c>
@@ -36831,7 +36839,7 @@
         <v>1194</v>
       </c>
       <c r="H740" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I740">
         <v>94</v>
@@ -36858,7 +36866,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1643</v>
       </c>
@@ -36881,7 +36889,7 @@
         <v>1194</v>
       </c>
       <c r="H741" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I741">
         <v>94</v>
@@ -36902,7 +36910,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1645</v>
       </c>
@@ -36925,7 +36933,7 @@
         <v>1194</v>
       </c>
       <c r="H742" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I742">
         <v>94</v>
@@ -36955,7 +36963,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1647</v>
       </c>
@@ -36978,7 +36986,7 @@
         <v>1194</v>
       </c>
       <c r="H743" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I743">
         <v>95</v>
@@ -36993,7 +37001,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1649</v>
       </c>
@@ -37016,7 +37024,7 @@
         <v>1194</v>
       </c>
       <c r="H744" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I744">
         <v>95</v>
@@ -37031,7 +37039,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1651</v>
       </c>
@@ -37054,7 +37062,7 @@
         <v>1194</v>
       </c>
       <c r="H745" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I745">
         <v>95</v>
@@ -37069,7 +37077,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1653</v>
       </c>
@@ -37092,7 +37100,7 @@
         <v>1194</v>
       </c>
       <c r="H746" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I746">
         <v>95</v>
@@ -37107,7 +37115,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1655</v>
       </c>
@@ -37130,7 +37138,7 @@
         <v>1194</v>
       </c>
       <c r="H747" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I747">
         <v>95</v>
@@ -37160,7 +37168,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1658</v>
       </c>
@@ -37183,7 +37191,7 @@
         <v>1194</v>
       </c>
       <c r="H748" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I748">
         <v>96</v>
@@ -37204,7 +37212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1660</v>
       </c>
@@ -37227,7 +37235,7 @@
         <v>1194</v>
       </c>
       <c r="H749" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I749">
         <v>96</v>
@@ -37245,7 +37253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1662</v>
       </c>
@@ -37265,7 +37273,7 @@
         <v>1194</v>
       </c>
       <c r="H750" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I750">
         <v>97</v>
@@ -37280,7 +37288,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1664</v>
       </c>
@@ -37300,7 +37308,7 @@
         <v>1194</v>
       </c>
       <c r="H751" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I751">
         <v>97</v>
@@ -37315,7 +37323,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1666</v>
       </c>
@@ -37335,7 +37343,7 @@
         <v>1194</v>
       </c>
       <c r="H752" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I752">
         <v>99</v>
@@ -37356,7 +37364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1668</v>
       </c>
@@ -37376,7 +37384,7 @@
         <v>1194</v>
       </c>
       <c r="H753" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I753">
         <v>99</v>
@@ -37391,7 +37399,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1670</v>
       </c>
@@ -37411,7 +37419,7 @@
         <v>1194</v>
       </c>
       <c r="H754" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I754">
         <v>100</v>
@@ -37432,7 +37440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1672</v>
       </c>
@@ -37452,7 +37460,7 @@
         <v>1194</v>
       </c>
       <c r="H755" t="s">
-        <v>149</v>
+        <v>1718</v>
       </c>
       <c r="I755">
         <v>101</v>
@@ -37473,7 +37481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1674</v>
       </c>
@@ -37526,7 +37534,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1675</v>
       </c>
@@ -37549,7 +37557,7 @@
         <v>1677</v>
       </c>
       <c r="H757" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I757">
         <v>96</v>
@@ -37570,7 +37578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1680</v>
       </c>
@@ -37590,7 +37598,7 @@
         <v>1677</v>
       </c>
       <c r="H758" t="s">
-        <v>25</v>
+        <v>1718</v>
       </c>
       <c r="I758">
         <v>98</v>
@@ -37626,7 +37634,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1682</v>
       </c>
@@ -37643,7 +37651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1684</v>
       </c>
@@ -37660,7 +37668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1686</v>
       </c>
@@ -37683,7 +37691,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1688</v>
       </c>
@@ -37700,7 +37708,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1690</v>
       </c>
@@ -37726,7 +37734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1692</v>
       </c>
@@ -37743,7 +37751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1694</v>
       </c>
@@ -37769,7 +37777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1696</v>
       </c>
@@ -37792,7 +37800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1697</v>
       </c>
@@ -37815,7 +37823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1698</v>
       </c>
@@ -37835,7 +37843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1699</v>
       </c>
@@ -37855,7 +37863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1700</v>
       </c>
@@ -37878,7 +37886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1701</v>
       </c>
@@ -37901,7 +37909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1702</v>
       </c>
@@ -37924,7 +37932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1703</v>
       </c>
@@ -37953,7 +37961,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1705</v>
       </c>
@@ -37976,7 +37984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1706</v>
       </c>
@@ -37999,7 +38007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1707</v>
       </c>
@@ -38022,7 +38030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1708</v>
       </c>
@@ -38030,7 +38038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1709</v>
       </c>
@@ -38043,10 +38051,10 @@
         <v>1710</v>
       </c>
       <c r="H779" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1711</v>
       </c>
@@ -38054,7 +38062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1712</v>
       </c>
@@ -38062,7 +38070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1713</v>
       </c>
@@ -38070,7 +38078,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1714</v>
       </c>
@@ -38078,7 +38086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1715</v>
       </c>
@@ -38086,7 +38094,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1716</v>
       </c>
@@ -38094,7 +38102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1717</v>
       </c>
@@ -38103,7 +38111,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F786"/>
+  <autoFilter ref="A1:U786" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="тритий"/>
+        <filter val="тритий-3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spravochniki/R.xlsx
+++ b/data/Spravochniki/R.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RAO_Project\data\Spravochniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82790407-9333-44E6-AFD8-68A416E24983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5193,7 +5192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5228,7 +5227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5505,8 +5504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5586,7 +5584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5659,7 +5657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5694,7 +5692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5732,7 +5730,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5782,7 +5780,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5873,7 +5871,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -5923,7 +5921,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -5973,7 +5971,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6061,7 +6059,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6105,7 +6103,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6158,7 +6156,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -6264,7 +6262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -6317,7 +6315,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6370,7 +6368,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6408,7 +6406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -6458,7 +6456,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6511,7 +6509,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6564,7 +6562,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -6617,7 +6615,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -6670,7 +6668,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6723,7 +6721,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -6776,7 +6774,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -6829,7 +6827,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -6882,7 +6880,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -6985,7 +6983,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -7038,7 +7036,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -7144,7 +7142,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -7197,7 +7195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -7250,7 +7248,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -7303,7 +7301,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -7356,7 +7354,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7503,7 +7501,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -7715,7 +7713,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -7768,7 +7766,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -7806,7 +7804,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -7841,7 +7839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -7888,7 +7886,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -7938,7 +7936,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -7988,7 +7986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -8038,7 +8036,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -8088,7 +8086,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -8138,7 +8136,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -8267,7 +8265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -8308,7 +8306,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -8384,7 +8382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -8469,7 +8467,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -8507,7 +8505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -8595,7 +8593,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -8633,7 +8631,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -8709,7 +8707,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -8744,7 +8742,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -8788,7 +8786,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -8826,7 +8824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -8920,7 +8918,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -8958,7 +8956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>177</v>
       </c>
@@ -8996,7 +8994,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -9043,7 +9041,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>181</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>183</v>
       </c>
@@ -9137,7 +9135,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -9190,7 +9188,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -9243,7 +9241,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>189</v>
       </c>
@@ -9296,7 +9294,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -9343,7 +9341,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>193</v>
       </c>
@@ -9381,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>195</v>
       </c>
@@ -9425,7 +9423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -9475,7 +9473,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>199</v>
       </c>
@@ -9516,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>201</v>
       </c>
@@ -9569,7 +9567,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -9616,7 +9614,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -9663,7 +9661,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -9701,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>209</v>
       </c>
@@ -9739,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>211</v>
       </c>
@@ -9792,7 +9790,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>213</v>
       </c>
@@ -9845,7 +9843,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -9883,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>217</v>
       </c>
@@ -9924,7 +9922,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -9977,7 +9975,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>221</v>
       </c>
@@ -10030,7 +10028,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -10083,7 +10081,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -10121,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>227</v>
       </c>
@@ -10159,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>229</v>
       </c>
@@ -10197,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>233</v>
       </c>
@@ -10288,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>235</v>
       </c>
@@ -10326,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -10370,7 +10368,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>239</v>
       </c>
@@ -10423,7 +10421,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>241</v>
       </c>
@@ -10467,7 +10465,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>244</v>
       </c>
@@ -10514,7 +10512,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>246</v>
       </c>
@@ -10561,7 +10559,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>248</v>
       </c>
@@ -10614,7 +10612,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>250</v>
       </c>
@@ -10655,7 +10653,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -10702,7 +10700,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>254</v>
       </c>
@@ -10752,7 +10750,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -10802,7 +10800,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -10855,7 +10853,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -10899,7 +10897,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -10943,7 +10941,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -10981,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>267</v>
       </c>
@@ -11034,7 +11032,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>269</v>
       </c>
@@ -11087,7 +11085,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>271</v>
       </c>
@@ -11134,7 +11132,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -11172,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -11210,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>277</v>
       </c>
@@ -11248,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>279</v>
       </c>
@@ -11295,7 +11293,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>281</v>
       </c>
@@ -11336,7 +11334,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>283</v>
       </c>
@@ -11374,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>285</v>
       </c>
@@ -11412,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>287</v>
       </c>
@@ -11465,7 +11463,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -11512,7 +11510,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -11550,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>294</v>
       </c>
@@ -11588,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -11626,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>298</v>
       </c>
@@ -11664,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>300</v>
       </c>
@@ -11705,7 +11703,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>302</v>
       </c>
@@ -11743,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -11790,7 +11788,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -11828,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>308</v>
       </c>
@@ -11866,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>310</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>312</v>
       </c>
@@ -11942,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>314</v>
       </c>
@@ -11980,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>316</v>
       </c>
@@ -12021,7 +12019,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>318</v>
       </c>
@@ -12059,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>320</v>
       </c>
@@ -12097,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>322</v>
       </c>
@@ -12135,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>324</v>
       </c>
@@ -12173,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>326</v>
       </c>
@@ -12214,7 +12212,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>328</v>
       </c>
@@ -12267,7 +12265,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>330</v>
       </c>
@@ -12320,7 +12318,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>332</v>
       </c>
@@ -12373,7 +12371,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>334</v>
       </c>
@@ -12411,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>336</v>
       </c>
@@ -12449,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>338</v>
       </c>
@@ -12487,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>340</v>
       </c>
@@ -12528,7 +12526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>342</v>
       </c>
@@ -12566,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>344</v>
       </c>
@@ -12604,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>346</v>
       </c>
@@ -12642,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>348</v>
       </c>
@@ -12680,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>351</v>
       </c>
@@ -12718,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>353</v>
       </c>
@@ -12759,7 +12757,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>355</v>
       </c>
@@ -12800,7 +12798,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>357</v>
       </c>
@@ -12838,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>359</v>
       </c>
@@ -12891,7 +12889,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>361</v>
       </c>
@@ -12929,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>363</v>
       </c>
@@ -12967,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>365</v>
       </c>
@@ -13017,7 +13015,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>367</v>
       </c>
@@ -13067,7 +13065,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>369</v>
       </c>
@@ -13117,7 +13115,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>372</v>
       </c>
@@ -13167,7 +13165,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>374</v>
       </c>
@@ -13214,7 +13212,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>376</v>
       </c>
@@ -13255,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>378</v>
       </c>
@@ -13293,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>380</v>
       </c>
@@ -13334,7 +13332,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>382</v>
       </c>
@@ -13372,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>385</v>
       </c>
@@ -13413,7 +13411,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>387</v>
       </c>
@@ -13466,7 +13464,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>389</v>
       </c>
@@ -13504,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>391</v>
       </c>
@@ -13542,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>393</v>
       </c>
@@ -13583,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>395</v>
       </c>
@@ -13624,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>397</v>
       </c>
@@ -13668,7 +13666,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>399</v>
       </c>
@@ -13709,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>401</v>
       </c>
@@ -13765,7 +13763,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>403</v>
       </c>
@@ -13821,7 +13819,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>405</v>
       </c>
@@ -13871,7 +13869,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>407</v>
       </c>
@@ -13921,7 +13919,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>409</v>
       </c>
@@ -13962,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>411</v>
       </c>
@@ -14006,7 +14004,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>413</v>
       </c>
@@ -14050,7 +14048,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>415</v>
       </c>
@@ -14106,7 +14104,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>417</v>
       </c>
@@ -14159,7 +14157,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>419</v>
       </c>
@@ -14206,7 +14204,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>421</v>
       </c>
@@ -14253,7 +14251,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>423</v>
       </c>
@@ -14291,7 +14289,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>425</v>
       </c>
@@ -14329,7 +14327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>427</v>
       </c>
@@ -14364,7 +14362,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>429</v>
       </c>
@@ -14414,7 +14412,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>431</v>
       </c>
@@ -14464,7 +14462,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>433</v>
       </c>
@@ -14508,7 +14506,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>435</v>
       </c>
@@ -14543,7 +14541,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>437</v>
       </c>
@@ -14578,7 +14576,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>439</v>
       </c>
@@ -14616,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>441</v>
       </c>
@@ -14669,7 +14667,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>443</v>
       </c>
@@ -14722,7 +14720,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>445</v>
       </c>
@@ -14760,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>447</v>
       </c>
@@ -14807,7 +14805,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>449</v>
       </c>
@@ -14851,7 +14849,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>451</v>
       </c>
@@ -14895,7 +14893,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>453</v>
       </c>
@@ -14948,7 +14946,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>455</v>
       </c>
@@ -14992,7 +14990,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>457</v>
       </c>
@@ -15030,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>459</v>
       </c>
@@ -15068,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>461</v>
       </c>
@@ -15106,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>464</v>
       </c>
@@ -15144,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>466</v>
       </c>
@@ -15185,7 +15183,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>469</v>
       </c>
@@ -15238,7 +15236,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>471</v>
       </c>
@@ -15279,7 +15277,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>473</v>
       </c>
@@ -15332,7 +15330,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>475</v>
       </c>
@@ -15370,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>477</v>
       </c>
@@ -15408,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>479</v>
       </c>
@@ -15461,7 +15459,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>481</v>
       </c>
@@ -15508,7 +15506,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>483</v>
       </c>
@@ -15561,7 +15559,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>485</v>
       </c>
@@ -15602,7 +15600,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>487</v>
       </c>
@@ -15640,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>490</v>
       </c>
@@ -15678,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>492</v>
       </c>
@@ -15719,7 +15717,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>494</v>
       </c>
@@ -15772,7 +15770,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>496</v>
       </c>
@@ -15810,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>499</v>
       </c>
@@ -15848,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>501</v>
       </c>
@@ -15886,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>503</v>
       </c>
@@ -15927,7 +15925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>505</v>
       </c>
@@ -15974,7 +15972,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>507</v>
       </c>
@@ -16012,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>509</v>
       </c>
@@ -16050,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>511</v>
       </c>
@@ -16088,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>513</v>
       </c>
@@ -16126,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>516</v>
       </c>
@@ -16179,7 +16177,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>518</v>
       </c>
@@ -16217,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>520</v>
       </c>
@@ -16255,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>523</v>
       </c>
@@ -16296,7 +16294,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>526</v>
       </c>
@@ -16349,7 +16347,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>528</v>
       </c>
@@ -16387,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>530</v>
       </c>
@@ -16425,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>532</v>
       </c>
@@ -16463,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>534</v>
       </c>
@@ -16501,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>536</v>
       </c>
@@ -16539,7 +16537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>538</v>
       </c>
@@ -16580,7 +16578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>541</v>
       </c>
@@ -16633,7 +16631,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>543</v>
       </c>
@@ -16686,7 +16684,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>546</v>
       </c>
@@ -16724,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>548</v>
       </c>
@@ -16762,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>551</v>
       </c>
@@ -16800,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>553</v>
       </c>
@@ -16838,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>555</v>
       </c>
@@ -16876,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>558</v>
       </c>
@@ -16914,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>560</v>
       </c>
@@ -16952,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>563</v>
       </c>
@@ -16990,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>565</v>
       </c>
@@ -17028,7 +17026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>568</v>
       </c>
@@ -17063,7 +17061,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>571</v>
       </c>
@@ -17098,7 +17096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>573</v>
       </c>
@@ -17148,7 +17146,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>575</v>
       </c>
@@ -17183,7 +17181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>577</v>
       </c>
@@ -17221,7 +17219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>579</v>
       </c>
@@ -17256,7 +17254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>582</v>
       </c>
@@ -17306,7 +17304,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>584</v>
       </c>
@@ -17344,7 +17342,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>586</v>
       </c>
@@ -17379,7 +17377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>588</v>
       </c>
@@ -17414,7 +17412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>590</v>
       </c>
@@ -17449,7 +17447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>592</v>
       </c>
@@ -17484,7 +17482,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>594</v>
       </c>
@@ -17519,7 +17517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>597</v>
       </c>
@@ -17554,7 +17552,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>599</v>
       </c>
@@ -17589,7 +17587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>602</v>
       </c>
@@ -17624,7 +17622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>604</v>
       </c>
@@ -17659,7 +17657,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>607</v>
       </c>
@@ -17709,7 +17707,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>609</v>
       </c>
@@ -17759,7 +17757,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>611</v>
       </c>
@@ -17809,7 +17807,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>613</v>
       </c>
@@ -17847,7 +17845,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>615</v>
       </c>
@@ -17882,7 +17880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>618</v>
       </c>
@@ -17917,7 +17915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>620</v>
       </c>
@@ -17952,7 +17950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>622</v>
       </c>
@@ -17987,7 +17985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>624</v>
       </c>
@@ -18022,7 +18020,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>626</v>
       </c>
@@ -18057,7 +18055,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>628</v>
       </c>
@@ -18092,7 +18090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>630</v>
       </c>
@@ -18136,7 +18134,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>632</v>
       </c>
@@ -18180,7 +18178,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>634</v>
       </c>
@@ -18221,7 +18219,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>636</v>
       </c>
@@ -18271,7 +18269,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>638</v>
       </c>
@@ -18312,7 +18310,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>640</v>
       </c>
@@ -18356,7 +18354,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>643</v>
       </c>
@@ -18397,7 +18395,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>645</v>
       </c>
@@ -18435,7 +18433,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>647</v>
       </c>
@@ -18473,7 +18471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>650</v>
       </c>
@@ -18511,7 +18509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>652</v>
       </c>
@@ -18552,7 +18550,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>654</v>
       </c>
@@ -18608,7 +18606,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>656</v>
       </c>
@@ -18649,7 +18647,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>658</v>
       </c>
@@ -18702,7 +18700,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>660</v>
       </c>
@@ -18746,7 +18744,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>662</v>
       </c>
@@ -18799,7 +18797,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>664</v>
       </c>
@@ -18846,7 +18844,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>666</v>
       </c>
@@ -18896,7 +18894,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>668</v>
       </c>
@@ -18946,7 +18944,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>670</v>
       </c>
@@ -18996,7 +18994,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>672</v>
       </c>
@@ -19046,7 +19044,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>674</v>
       </c>
@@ -19096,7 +19094,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>676</v>
       </c>
@@ -19137,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>678</v>
       </c>
@@ -19178,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>680</v>
       </c>
@@ -19219,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>682</v>
       </c>
@@ -19260,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>684</v>
       </c>
@@ -19316,7 +19314,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>686</v>
       </c>
@@ -19357,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>688</v>
       </c>
@@ -19413,7 +19411,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>690</v>
       </c>
@@ -19469,7 +19467,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>692</v>
       </c>
@@ -19525,7 +19523,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>694</v>
       </c>
@@ -19581,7 +19579,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>696</v>
       </c>
@@ -19637,7 +19635,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>698</v>
       </c>
@@ -19684,7 +19682,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>700</v>
       </c>
@@ -19722,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>702</v>
       </c>
@@ -19760,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>704</v>
       </c>
@@ -19813,7 +19811,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>706</v>
       </c>
@@ -19851,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>708</v>
       </c>
@@ -19904,7 +19902,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>710</v>
       </c>
@@ -19942,7 +19940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>712</v>
       </c>
@@ -19980,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>714</v>
       </c>
@@ -20018,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>716</v>
       </c>
@@ -20056,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>718</v>
       </c>
@@ -20094,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>720</v>
       </c>
@@ -20147,7 +20145,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>722</v>
       </c>
@@ -20185,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>724</v>
       </c>
@@ -20223,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>726</v>
       </c>
@@ -20261,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>728</v>
       </c>
@@ -20299,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>730</v>
       </c>
@@ -20352,7 +20350,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>732</v>
       </c>
@@ -20405,7 +20403,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>734</v>
       </c>
@@ -20458,7 +20456,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>736</v>
       </c>
@@ -20496,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>738</v>
       </c>
@@ -20534,7 +20532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>740</v>
       </c>
@@ -20572,7 +20570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>743</v>
       </c>
@@ -20610,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>745</v>
       </c>
@@ -20657,7 +20655,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>747</v>
       </c>
@@ -20710,7 +20708,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>749</v>
       </c>
@@ -20748,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>751</v>
       </c>
@@ -20786,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>753</v>
       </c>
@@ -20824,7 +20822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>755</v>
       </c>
@@ -20862,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>757</v>
       </c>
@@ -20900,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>759</v>
       </c>
@@ -20935,7 +20933,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>761</v>
       </c>
@@ -20985,7 +20983,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>763</v>
       </c>
@@ -21029,7 +21027,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>765</v>
       </c>
@@ -21064,7 +21062,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>767</v>
       </c>
@@ -21099,7 +21097,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>769</v>
       </c>
@@ -21137,7 +21135,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>771</v>
       </c>
@@ -21187,7 +21185,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>773</v>
       </c>
@@ -21225,7 +21223,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>775</v>
       </c>
@@ -21263,7 +21261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>778</v>
       </c>
@@ -21313,7 +21311,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>780</v>
       </c>
@@ -21348,7 +21346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>782</v>
       </c>
@@ -21386,7 +21384,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>784</v>
       </c>
@@ -21421,7 +21419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>786</v>
       </c>
@@ -21456,7 +21454,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>789</v>
       </c>
@@ -21491,7 +21489,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>791</v>
       </c>
@@ -21529,7 +21527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>793</v>
       </c>
@@ -21579,7 +21577,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>795</v>
       </c>
@@ -21629,7 +21627,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>797</v>
       </c>
@@ -21664,7 +21662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>799</v>
       </c>
@@ -21699,7 +21697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>801</v>
       </c>
@@ -21734,7 +21732,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>803</v>
       </c>
@@ -21769,7 +21767,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>805</v>
       </c>
@@ -21807,7 +21805,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>807</v>
       </c>
@@ -21845,7 +21843,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>809</v>
       </c>
@@ -21883,7 +21881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>812</v>
       </c>
@@ -21936,7 +21934,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>814</v>
       </c>
@@ -21983,7 +21981,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>817</v>
       </c>
@@ -22033,7 +22031,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>819</v>
       </c>
@@ -22083,7 +22081,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>821</v>
       </c>
@@ -22121,7 +22119,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>823</v>
       </c>
@@ -22156,7 +22154,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>825</v>
       </c>
@@ -22191,7 +22189,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>827</v>
       </c>
@@ -22226,7 +22224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>829</v>
       </c>
@@ -22261,7 +22259,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>831</v>
       </c>
@@ -22296,7 +22294,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>833</v>
       </c>
@@ -22340,7 +22338,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>835</v>
       </c>
@@ -22375,7 +22373,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>837</v>
       </c>
@@ -22416,7 +22414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>839</v>
       </c>
@@ -22451,7 +22449,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>841</v>
       </c>
@@ -22486,7 +22484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>843</v>
       </c>
@@ -22521,7 +22519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>845</v>
       </c>
@@ -22556,7 +22554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>847</v>
       </c>
@@ -22591,7 +22589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>850</v>
       </c>
@@ -22641,7 +22639,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>852</v>
       </c>
@@ -22676,7 +22674,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>854</v>
       </c>
@@ -22711,7 +22709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>856</v>
       </c>
@@ -22755,7 +22753,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>858</v>
       </c>
@@ -22805,7 +22803,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>860</v>
       </c>
@@ -22840,7 +22838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>862</v>
       </c>
@@ -22875,7 +22873,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>864</v>
       </c>
@@ -22910,7 +22908,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>866</v>
       </c>
@@ -22945,7 +22943,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>868</v>
       </c>
@@ -22995,7 +22993,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>870</v>
       </c>
@@ -23033,7 +23031,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>873</v>
       </c>
@@ -23068,7 +23066,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>875</v>
       </c>
@@ -23103,7 +23101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>877</v>
       </c>
@@ -23153,7 +23151,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>879</v>
       </c>
@@ -23200,7 +23198,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>881</v>
       </c>
@@ -23238,7 +23236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>883</v>
       </c>
@@ -23276,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>885</v>
       </c>
@@ -23314,7 +23312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>887</v>
       </c>
@@ -23367,7 +23365,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>889</v>
       </c>
@@ -23420,7 +23418,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>891</v>
       </c>
@@ -23458,7 +23456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>893</v>
       </c>
@@ -23496,7 +23494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>895</v>
       </c>
@@ -23534,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>897</v>
       </c>
@@ -23572,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>899</v>
       </c>
@@ -23610,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>901</v>
       </c>
@@ -23663,7 +23661,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>903</v>
       </c>
@@ -23701,7 +23699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>905</v>
       </c>
@@ -23739,7 +23737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>907</v>
       </c>
@@ -23777,7 +23775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>909</v>
       </c>
@@ -23815,7 +23813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>911</v>
       </c>
@@ -23853,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>913</v>
       </c>
@@ -23894,7 +23892,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>915</v>
       </c>
@@ -23932,7 +23930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>917</v>
       </c>
@@ -23970,7 +23968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>920</v>
       </c>
@@ -24023,7 +24021,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>922</v>
       </c>
@@ -24061,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>924</v>
       </c>
@@ -24099,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>927</v>
       </c>
@@ -24137,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>929</v>
       </c>
@@ -24172,7 +24170,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>931</v>
       </c>
@@ -24222,7 +24220,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>933</v>
       </c>
@@ -24260,7 +24258,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>935</v>
       </c>
@@ -24298,7 +24296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>938</v>
       </c>
@@ -24333,7 +24331,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>940</v>
       </c>
@@ -24368,7 +24366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>942</v>
       </c>
@@ -24403,7 +24401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>944</v>
       </c>
@@ -24438,7 +24436,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>946</v>
       </c>
@@ -24473,7 +24471,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>948</v>
       </c>
@@ -24508,7 +24506,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>950</v>
       </c>
@@ -24543,7 +24541,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>952</v>
       </c>
@@ -24578,7 +24576,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>954</v>
       </c>
@@ -24613,7 +24611,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>956</v>
       </c>
@@ -24663,7 +24661,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>958</v>
       </c>
@@ -24698,7 +24696,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>960</v>
       </c>
@@ -24733,7 +24731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>962</v>
       </c>
@@ -24768,7 +24766,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>964</v>
       </c>
@@ -24803,7 +24801,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>966</v>
       </c>
@@ -24838,7 +24836,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>968</v>
       </c>
@@ -24888,7 +24886,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>970</v>
       </c>
@@ -24938,7 +24936,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>972</v>
       </c>
@@ -24982,7 +24980,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>974</v>
       </c>
@@ -25020,7 +25018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>976</v>
       </c>
@@ -25055,7 +25053,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>978</v>
       </c>
@@ -25090,7 +25088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>980</v>
       </c>
@@ -25125,7 +25123,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>983</v>
       </c>
@@ -25175,7 +25173,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>985</v>
       </c>
@@ -25219,7 +25217,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>987</v>
       </c>
@@ -25257,7 +25255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>989</v>
       </c>
@@ -25295,7 +25293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>991</v>
       </c>
@@ -25348,7 +25346,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>993</v>
       </c>
@@ -25401,7 +25399,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>995</v>
       </c>
@@ -25442,7 +25440,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>997</v>
       </c>
@@ -25480,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>999</v>
       </c>
@@ -25518,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1001</v>
       </c>
@@ -25556,7 +25554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1003</v>
       </c>
@@ -25594,7 +25592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1005</v>
       </c>
@@ -25632,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1008</v>
       </c>
@@ -25670,7 +25668,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1011</v>
       </c>
@@ -25720,7 +25718,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1013</v>
       </c>
@@ -25764,7 +25762,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1015</v>
       </c>
@@ -25799,7 +25797,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1018</v>
       </c>
@@ -25834,7 +25832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1020</v>
       </c>
@@ -25869,7 +25867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1023</v>
       </c>
@@ -25904,7 +25902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1025</v>
       </c>
@@ -25948,7 +25946,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1027</v>
       </c>
@@ -25983,7 +25981,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1029</v>
       </c>
@@ -26018,7 +26016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1031</v>
       </c>
@@ -26056,7 +26054,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1033</v>
       </c>
@@ -26094,7 +26092,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1035</v>
       </c>
@@ -26144,7 +26142,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1037</v>
       </c>
@@ -26194,7 +26192,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1039</v>
       </c>
@@ -26229,7 +26227,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1041</v>
       </c>
@@ -26267,7 +26265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1044</v>
       </c>
@@ -26302,7 +26300,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1046</v>
       </c>
@@ -26337,7 +26335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1048</v>
       </c>
@@ -26375,7 +26373,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1051</v>
       </c>
@@ -26425,7 +26423,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1053</v>
       </c>
@@ -26460,7 +26458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1055</v>
       </c>
@@ -26495,7 +26493,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1058</v>
       </c>
@@ -26530,7 +26528,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1060</v>
       </c>
@@ -26565,7 +26563,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1062</v>
       </c>
@@ -26600,7 +26598,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1064</v>
       </c>
@@ -26650,7 +26648,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1066</v>
       </c>
@@ -26700,7 +26698,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1068</v>
       </c>
@@ -26750,7 +26748,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1070</v>
       </c>
@@ -26785,7 +26783,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1073</v>
       </c>
@@ -26820,7 +26818,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1075</v>
       </c>
@@ -26858,7 +26856,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1077</v>
       </c>
@@ -26893,7 +26891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1079</v>
       </c>
@@ -26943,7 +26941,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1081</v>
       </c>
@@ -26978,7 +26976,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1083</v>
       </c>
@@ -27022,7 +27020,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1085</v>
       </c>
@@ -27057,7 +27055,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1087</v>
       </c>
@@ -27092,7 +27090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1089</v>
       </c>
@@ -27127,7 +27125,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1091</v>
       </c>
@@ -27162,7 +27160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1093</v>
       </c>
@@ -27197,7 +27195,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1095</v>
       </c>
@@ -27235,7 +27233,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1097</v>
       </c>
@@ -27285,7 +27283,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1099</v>
       </c>
@@ -27335,7 +27333,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1101</v>
       </c>
@@ -27385,7 +27383,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1103</v>
       </c>
@@ -27435,7 +27433,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1105</v>
       </c>
@@ -27470,7 +27468,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1107</v>
       </c>
@@ -27505,7 +27503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1109</v>
       </c>
@@ -27546,7 +27544,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1111</v>
       </c>
@@ -27587,7 +27585,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1113</v>
       </c>
@@ -27628,7 +27626,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1115</v>
       </c>
@@ -27663,7 +27661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1117</v>
       </c>
@@ -27698,7 +27696,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1119</v>
       </c>
@@ -27733,7 +27731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1121</v>
       </c>
@@ -27783,7 +27781,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1123</v>
       </c>
@@ -27824,7 +27822,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1125</v>
       </c>
@@ -27874,7 +27872,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1127</v>
       </c>
@@ -27912,7 +27910,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1129</v>
       </c>
@@ -27956,7 +27954,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1131</v>
       </c>
@@ -28000,7 +27998,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1133</v>
       </c>
@@ -28053,7 +28051,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1135</v>
       </c>
@@ -28106,7 +28104,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1137</v>
       </c>
@@ -28141,7 +28139,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1139</v>
       </c>
@@ -28191,7 +28189,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1141</v>
       </c>
@@ -28226,7 +28224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1143</v>
       </c>
@@ -28276,7 +28274,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1145</v>
       </c>
@@ -28320,7 +28318,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1147</v>
       </c>
@@ -28364,7 +28362,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1149</v>
       </c>
@@ -28399,7 +28397,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1151</v>
       </c>
@@ -28440,7 +28438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1154</v>
       </c>
@@ -28475,7 +28473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1156</v>
       </c>
@@ -28525,7 +28523,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1158</v>
       </c>
@@ -28566,7 +28564,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1160</v>
       </c>
@@ -28619,7 +28617,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1162</v>
       </c>
@@ -28663,7 +28661,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1164</v>
       </c>
@@ -28701,7 +28699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1166</v>
       </c>
@@ -28739,7 +28737,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1168</v>
       </c>
@@ -28783,7 +28781,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1170</v>
       </c>
@@ -28824,7 +28822,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1172</v>
       </c>
@@ -28862,7 +28860,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1175</v>
       </c>
@@ -28900,7 +28898,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1177</v>
       </c>
@@ -28938,7 +28936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1179</v>
       </c>
@@ -28976,7 +28974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1182</v>
       </c>
@@ -29014,7 +29012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1184</v>
       </c>
@@ -29064,7 +29062,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1186</v>
       </c>
@@ -29099,7 +29097,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1188</v>
       </c>
@@ -29149,7 +29147,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1190</v>
       </c>
@@ -29196,7 +29194,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1192</v>
       </c>
@@ -29246,7 +29244,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1197</v>
       </c>
@@ -29296,7 +29294,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1199</v>
       </c>
@@ -29337,7 +29335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1201</v>
       </c>
@@ -29375,7 +29373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1206</v>
       </c>
@@ -29416,7 +29414,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1208</v>
       </c>
@@ -29457,7 +29455,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1210</v>
       </c>
@@ -29510,7 +29508,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1212</v>
       </c>
@@ -29563,7 +29561,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1214</v>
       </c>
@@ -29616,7 +29614,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1216</v>
       </c>
@@ -29669,7 +29667,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1218</v>
       </c>
@@ -29719,7 +29717,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1220</v>
       </c>
@@ -29766,7 +29764,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1223</v>
       </c>
@@ -29810,7 +29808,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1226</v>
       </c>
@@ -29848,7 +29846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1228</v>
       </c>
@@ -29895,7 +29893,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1231</v>
       </c>
@@ -29936,7 +29934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1233</v>
       </c>
@@ -29977,7 +29975,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1235</v>
       </c>
@@ -30030,7 +30028,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1237</v>
       </c>
@@ -30083,7 +30081,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1239</v>
       </c>
@@ -30121,7 +30119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1242</v>
       </c>
@@ -30174,7 +30172,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="578" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1244</v>
       </c>
@@ -30212,7 +30210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1247</v>
       </c>
@@ -30250,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1250</v>
       </c>
@@ -30288,7 +30286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1253</v>
       </c>
@@ -30329,7 +30327,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="582" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1255</v>
       </c>
@@ -30385,7 +30383,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="583" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1257</v>
       </c>
@@ -30435,7 +30433,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="584" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1260</v>
       </c>
@@ -30485,7 +30483,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="585" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1263</v>
       </c>
@@ -30526,7 +30524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1266</v>
       </c>
@@ -30564,7 +30562,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="587" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1269</v>
       </c>
@@ -30611,7 +30609,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="588" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1272</v>
       </c>
@@ -30646,7 +30644,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="589" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1274</v>
       </c>
@@ -30684,7 +30682,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="590" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1276</v>
       </c>
@@ -30719,7 +30717,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="591" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1279</v>
       </c>
@@ -30772,7 +30770,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="592" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1282</v>
       </c>
@@ -30810,7 +30808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1285</v>
       </c>
@@ -30863,7 +30861,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1287</v>
       </c>
@@ -30901,7 +30899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1290</v>
       </c>
@@ -30939,7 +30937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1293</v>
       </c>
@@ -30986,7 +30984,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1296</v>
       </c>
@@ -31039,7 +31037,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1298</v>
       </c>
@@ -31092,7 +31090,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1301</v>
       </c>
@@ -31139,7 +31137,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1304</v>
       </c>
@@ -31177,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1306</v>
       </c>
@@ -31230,7 +31228,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1308</v>
       </c>
@@ -31271,7 +31269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1310</v>
       </c>
@@ -31309,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1313</v>
       </c>
@@ -31350,7 +31348,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1316</v>
       </c>
@@ -31397,7 +31395,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1319</v>
       </c>
@@ -31435,7 +31433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1321</v>
       </c>
@@ -31488,7 +31486,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1323</v>
       </c>
@@ -31541,7 +31539,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1326</v>
       </c>
@@ -31594,7 +31592,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1328</v>
       </c>
@@ -31647,7 +31645,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1330</v>
       </c>
@@ -31694,7 +31692,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1333</v>
       </c>
@@ -31747,7 +31745,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1336</v>
       </c>
@@ -31794,7 +31792,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1339</v>
       </c>
@@ -31829,7 +31827,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1341</v>
       </c>
@@ -31867,7 +31865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1344</v>
       </c>
@@ -31905,7 +31903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1347</v>
       </c>
@@ -31943,7 +31941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1350</v>
       </c>
@@ -31978,7 +31976,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1352</v>
       </c>
@@ -32016,7 +32014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1355</v>
       </c>
@@ -32051,7 +32049,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1358</v>
       </c>
@@ -32089,7 +32087,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1360</v>
       </c>
@@ -32127,7 +32125,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1363</v>
       </c>
@@ -32162,7 +32160,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="624" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1365</v>
       </c>
@@ -32212,7 +32210,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1368</v>
       </c>
@@ -32262,7 +32260,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1371</v>
       </c>
@@ -32312,7 +32310,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1374</v>
       </c>
@@ -32365,7 +32363,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1377</v>
       </c>
@@ -32415,7 +32413,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1380</v>
       </c>
@@ -32462,7 +32460,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1382</v>
       </c>
@@ -32515,7 +32513,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1384</v>
       </c>
@@ -32553,7 +32551,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1387</v>
       </c>
@@ -32594,7 +32592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1390</v>
       </c>
@@ -32635,7 +32633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1393</v>
       </c>
@@ -32691,7 +32689,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1395</v>
       </c>
@@ -32741,7 +32739,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1398</v>
       </c>
@@ -32782,7 +32780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1401</v>
       </c>
@@ -32820,7 +32818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1404</v>
       </c>
@@ -32867,7 +32865,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1406</v>
       </c>
@@ -32908,7 +32906,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1409</v>
       </c>
@@ -32946,7 +32944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1412</v>
       </c>
@@ -32987,7 +32985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1414</v>
       </c>
@@ -33025,7 +33023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1416</v>
       </c>
@@ -33063,7 +33061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1418</v>
       </c>
@@ -33101,7 +33099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1420</v>
       </c>
@@ -33139,7 +33137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1423</v>
       </c>
@@ -33192,7 +33190,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1425</v>
       </c>
@@ -33230,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1428</v>
       </c>
@@ -33268,7 +33266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1430</v>
       </c>
@@ -33306,7 +33304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1433</v>
       </c>
@@ -33344,7 +33342,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1435</v>
       </c>
@@ -33382,7 +33380,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1437</v>
       </c>
@@ -33420,7 +33418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1439</v>
       </c>
@@ -33458,7 +33456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1441</v>
       </c>
@@ -33493,7 +33491,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1443</v>
       </c>
@@ -33531,7 +33529,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1445</v>
       </c>
@@ -33566,7 +33564,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="657" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1447</v>
       </c>
@@ -33616,7 +33614,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="658" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1449</v>
       </c>
@@ -33651,7 +33649,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="659" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1451</v>
       </c>
@@ -33686,7 +33684,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="660" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1453</v>
       </c>
@@ -33721,7 +33719,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="661" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1456</v>
       </c>
@@ -33759,7 +33757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="662" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1458</v>
       </c>
@@ -33803,7 +33801,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="663" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1460</v>
       </c>
@@ -33838,7 +33836,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="664" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1462</v>
       </c>
@@ -33876,7 +33874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1464</v>
       </c>
@@ -33911,7 +33909,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="666" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1466</v>
       </c>
@@ -33952,7 +33950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="667" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1469</v>
       </c>
@@ -33993,7 +33991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="668" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1471</v>
       </c>
@@ -34028,7 +34026,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="669" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1474</v>
       </c>
@@ -34063,7 +34061,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="670" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1476</v>
       </c>
@@ -34104,7 +34102,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="671" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1478</v>
       </c>
@@ -34142,7 +34140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1480</v>
       </c>
@@ -34183,7 +34181,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1482</v>
       </c>
@@ -34224,7 +34222,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1484</v>
       </c>
@@ -34265,7 +34263,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1486</v>
       </c>
@@ -34306,7 +34304,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1489</v>
       </c>
@@ -34344,7 +34342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1492</v>
       </c>
@@ -34382,7 +34380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1494</v>
       </c>
@@ -34420,7 +34418,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1496</v>
       </c>
@@ -34458,7 +34456,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1498</v>
       </c>
@@ -34493,7 +34491,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1501</v>
       </c>
@@ -34528,7 +34526,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1504</v>
       </c>
@@ -34563,7 +34561,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1507</v>
       </c>
@@ -34598,7 +34596,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1510</v>
       </c>
@@ -34636,7 +34634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1512</v>
       </c>
@@ -34677,7 +34675,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1514</v>
       </c>
@@ -34712,7 +34710,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1517</v>
       </c>
@@ -34747,7 +34745,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1520</v>
       </c>
@@ -34782,7 +34780,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1522</v>
       </c>
@@ -34820,7 +34818,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1524</v>
       </c>
@@ -34855,7 +34853,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1526</v>
       </c>
@@ -34890,7 +34888,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1528</v>
       </c>
@@ -34925,7 +34923,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1530</v>
       </c>
@@ -34963,7 +34961,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1532</v>
       </c>
@@ -35004,7 +35002,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1535</v>
       </c>
@@ -35045,7 +35043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1538</v>
       </c>
@@ -35080,7 +35078,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1541</v>
       </c>
@@ -35118,7 +35116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1543</v>
       </c>
@@ -35156,7 +35154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1545</v>
       </c>
@@ -35209,7 +35207,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1547</v>
       </c>
@@ -35247,7 +35245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1550</v>
       </c>
@@ -35294,7 +35292,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1553</v>
       </c>
@@ -35332,7 +35330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1555</v>
       </c>
@@ -35370,7 +35368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1557</v>
       </c>
@@ -35408,7 +35406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1559</v>
       </c>
@@ -35458,7 +35456,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1561</v>
       </c>
@@ -35493,7 +35491,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1564</v>
       </c>
@@ -35528,7 +35526,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1567</v>
       </c>
@@ -35563,7 +35561,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1570</v>
       </c>
@@ -35598,7 +35596,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1572</v>
       </c>
@@ -35636,7 +35634,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1574</v>
       </c>
@@ -35686,7 +35684,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1576</v>
       </c>
@@ -35724,7 +35722,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1578</v>
       </c>
@@ -35774,7 +35772,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1581</v>
       </c>
@@ -35812,7 +35810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1584</v>
       </c>
@@ -35856,7 +35854,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1587</v>
       </c>
@@ -35894,7 +35892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1589</v>
       </c>
@@ -35929,7 +35927,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1592</v>
       </c>
@@ -35967,7 +35965,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1594</v>
       </c>
@@ -36002,7 +36000,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1596</v>
       </c>
@@ -36043,7 +36041,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1599</v>
       </c>
@@ -36093,7 +36091,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="722" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1601</v>
       </c>
@@ -36140,7 +36138,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1604</v>
       </c>
@@ -36175,7 +36173,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="724" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1607</v>
       </c>
@@ -36210,7 +36208,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1610</v>
       </c>
@@ -36245,7 +36243,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1612</v>
       </c>
@@ -36295,7 +36293,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="727" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1614</v>
       </c>
@@ -36330,7 +36328,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1616</v>
       </c>
@@ -36365,7 +36363,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1618</v>
       </c>
@@ -36403,7 +36401,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1620</v>
       </c>
@@ -36441,7 +36439,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1623</v>
       </c>
@@ -36491,7 +36489,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1625</v>
       </c>
@@ -36529,7 +36527,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1627</v>
       </c>
@@ -36570,7 +36568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1629</v>
       </c>
@@ -36611,7 +36609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1631</v>
       </c>
@@ -36667,7 +36665,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1633</v>
       </c>
@@ -36702,7 +36700,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="737" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1635</v>
       </c>
@@ -36737,7 +36735,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="738" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1637</v>
       </c>
@@ -36775,7 +36773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="739" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1639</v>
       </c>
@@ -36816,7 +36814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1641</v>
       </c>
@@ -36866,7 +36864,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1643</v>
       </c>
@@ -36910,7 +36908,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1645</v>
       </c>
@@ -36963,7 +36961,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1647</v>
       </c>
@@ -37001,7 +36999,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1649</v>
       </c>
@@ -37039,7 +37037,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1651</v>
       </c>
@@ -37077,7 +37075,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1653</v>
       </c>
@@ -37115,7 +37113,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1655</v>
       </c>
@@ -37168,7 +37166,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1658</v>
       </c>
@@ -37212,7 +37210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1660</v>
       </c>
@@ -37253,7 +37251,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="750" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1662</v>
       </c>
@@ -37288,7 +37286,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="751" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1664</v>
       </c>
@@ -37323,7 +37321,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="752" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1666</v>
       </c>
@@ -37364,7 +37362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1668</v>
       </c>
@@ -37399,7 +37397,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1670</v>
       </c>
@@ -37440,7 +37438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1672</v>
       </c>
@@ -37481,7 +37479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1674</v>
       </c>
@@ -37534,7 +37532,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1675</v>
       </c>
@@ -37578,7 +37576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1680</v>
       </c>
@@ -37634,7 +37632,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1682</v>
       </c>
@@ -37651,7 +37649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1684</v>
       </c>
@@ -37668,7 +37666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1686</v>
       </c>
@@ -37691,7 +37689,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1688</v>
       </c>
@@ -37708,7 +37706,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1690</v>
       </c>
@@ -37734,7 +37732,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1692</v>
       </c>
@@ -37751,7 +37749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1694</v>
       </c>
@@ -37777,7 +37775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1696</v>
       </c>
@@ -37800,7 +37798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1697</v>
       </c>
@@ -37823,7 +37821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1698</v>
       </c>
@@ -37843,7 +37841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1699</v>
       </c>
@@ -37863,7 +37861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1700</v>
       </c>
@@ -37886,7 +37884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1701</v>
       </c>
@@ -37909,7 +37907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1702</v>
       </c>
@@ -37932,7 +37930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1703</v>
       </c>
@@ -37961,7 +37959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1705</v>
       </c>
@@ -37984,7 +37982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1706</v>
       </c>
@@ -38007,7 +38005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1707</v>
       </c>
@@ -38030,7 +38028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1708</v>
       </c>
@@ -38038,7 +38036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1709</v>
       </c>
@@ -38054,7 +38052,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1711</v>
       </c>
@@ -38062,7 +38060,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1712</v>
       </c>
@@ -38070,7 +38068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1713</v>
       </c>
@@ -38078,7 +38076,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1714</v>
       </c>
@@ -38086,7 +38084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1715</v>
       </c>
@@ -38094,7 +38092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1716</v>
       </c>
@@ -38102,7 +38100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1717</v>
       </c>
@@ -38111,14 +38109,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U786" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="тритий"/>
-        <filter val="тритий-3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U786"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spravochniki/R.xlsx
+++ b/data/Spravochniki/R.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RAO_Project\data\Spravochniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mav\source\repos\Formchecks\ReferenceBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEDDC8-FF11-47EB-BE4E-402564FB7E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5196,7 +5195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5231,7 +5230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5508,11 +5507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38145,7 +38144,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A787" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A787"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spravochniki/R.xlsx
+++ b/data/Spravochniki/R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\!!!МПЗФ\Справочники\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mav\MPZF\sourcecode_sync\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$X$780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Y$780</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7673" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="2166">
   <si>
     <t>Name_RN-Наименование радионуклида (рус)</t>
   </si>
@@ -6532,6 +6532,9 @@
   </si>
   <si>
     <t>040097</t>
+  </si>
+  <si>
+    <t>Переводной коэффициент Ki, Вт/Бк</t>
   </si>
 </sst>
 </file>
@@ -6607,7 +6610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6662,6 +6665,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -19392,12 +19406,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X782"/>
+  <dimension ref="A1:Y782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19426,10 +19440,11 @@
     <col min="22" max="22" width="22.85546875" style="18" customWidth="1"/>
     <col min="23" max="23" width="26.7109375" style="18" customWidth="1"/>
     <col min="24" max="24" width="20.42578125" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="25" max="25" width="15.85546875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19502,8 +19517,11 @@
       <c r="X1" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="30" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1775</v>
       </c>
@@ -19551,8 +19569,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -19597,8 +19616,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="26"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1246</v>
       </c>
@@ -19643,8 +19663,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="26"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1248</v>
       </c>
@@ -19695,8 +19716,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="26"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1250</v>
       </c>
@@ -19753,8 +19775,9 @@
       <c r="V6" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="26"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>602</v>
       </c>
@@ -19799,8 +19822,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="26"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>604</v>
       </c>
@@ -19845,8 +19869,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>606</v>
       </c>
@@ -19891,8 +19916,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="26"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>608</v>
       </c>
@@ -19937,8 +19963,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>611</v>
       </c>
@@ -20004,8 +20031,11 @@
       <c r="W11" s="18">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="27">
+        <v>8.3999999999999995E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>613</v>
       </c>
@@ -20050,8 +20080,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="26"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>615</v>
       </c>
@@ -20096,8 +20127,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="26"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>618</v>
       </c>
@@ -20145,8 +20177,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1463</v>
       </c>
@@ -20212,8 +20245,11 @@
       <c r="W15" s="18">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="27">
+        <v>4.5299999999999999E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>621</v>
       </c>
@@ -20279,8 +20315,9 @@
       <c r="W16" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>623</v>
       </c>
@@ -20325,8 +20362,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>625</v>
       </c>
@@ -20371,8 +20409,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y18" s="26"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>241</v>
       </c>
@@ -20417,8 +20456,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y19" s="26"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1797</v>
       </c>
@@ -20463,8 +20503,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y20" s="26"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1799</v>
       </c>
@@ -20509,8 +20550,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y21" s="26"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1801</v>
       </c>
@@ -20555,8 +20597,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1803</v>
       </c>
@@ -20601,8 +20644,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y23" s="26"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>135</v>
       </c>
@@ -20668,8 +20712,11 @@
       <c r="W24" s="18" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y24" s="27">
+        <v>8.9700000000000001E-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1290</v>
       </c>
@@ -20732,8 +20779,9 @@
       <c r="W25" s="18">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y25" s="26"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1805</v>
       </c>
@@ -20799,8 +20847,11 @@
       <c r="W26" s="18" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y26" s="27">
+        <v>1.1600000000000001E-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>138</v>
       </c>
@@ -20866,8 +20917,11 @@
       <c r="W27" s="18" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y27" s="27">
+        <v>9.2800000000000008E-13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1292</v>
       </c>
@@ -20915,8 +20969,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y28" s="26"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1294</v>
       </c>
@@ -20961,8 +21016,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y29" s="26"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1297</v>
       </c>
@@ -21007,8 +21063,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y30" s="26"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1299</v>
       </c>
@@ -21053,8 +21110,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y31" s="26"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1301</v>
       </c>
@@ -21099,6 +21157,7 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
+      <c r="Y32" s="26"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -21978,7 +22037,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1146</v>
       </c>
@@ -22023,8 +22082,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y49" s="26"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1734</v>
       </c>
@@ -22069,8 +22129,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y50" s="26"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1148</v>
       </c>
@@ -22133,8 +22194,9 @@
       <c r="W51" s="18">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y51" s="26"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1736</v>
       </c>
@@ -22176,8 +22238,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y52" s="26"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1150</v>
       </c>
@@ -22240,8 +22303,9 @@
       <c r="W53" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y53" s="26"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1152</v>
       </c>
@@ -22283,8 +22347,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y54" s="26"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1154</v>
       </c>
@@ -22329,8 +22394,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y55" s="26"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1157</v>
       </c>
@@ -22372,8 +22438,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y56" s="26"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>802</v>
       </c>
@@ -22418,8 +22485,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y57" s="26"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>804</v>
       </c>
@@ -22464,8 +22532,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y58" s="26"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>806</v>
       </c>
@@ -22531,8 +22600,9 @@
       <c r="W59" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y59" s="26"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1546</v>
       </c>
@@ -22577,8 +22647,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y60" s="26"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1549</v>
       </c>
@@ -22644,8 +22715,11 @@
       <c r="W61" s="18">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y61" s="27">
+        <v>7.1600000000000005E-14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1551</v>
       </c>
@@ -22693,8 +22767,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y62" s="26"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1554</v>
       </c>
@@ -22739,8 +22814,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y63" s="26"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>809</v>
       </c>
@@ -22785,8 +22861,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y64" s="26"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>811</v>
       </c>
@@ -22852,8 +22929,9 @@
       <c r="W65" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y65" s="26"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>813</v>
       </c>
@@ -22898,8 +22976,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y66" s="26"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>815</v>
       </c>
@@ -22944,8 +23023,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y67" s="26"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>212</v>
       </c>
@@ -22990,8 +23070,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y68" s="26"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1315</v>
       </c>
@@ -23054,8 +23135,11 @@
       <c r="W69" s="18" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y69" s="27">
+        <v>8.0000000000000006E-15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1203</v>
       </c>
@@ -23097,8 +23181,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y70" s="26"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1205</v>
       </c>
@@ -23140,8 +23225,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y71" s="26"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1207</v>
       </c>
@@ -23183,8 +23269,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y72" s="26"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1209</v>
       </c>
@@ -23226,8 +23313,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y73" s="26"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1211</v>
       </c>
@@ -23272,8 +23360,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y74" s="26"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1213</v>
       </c>
@@ -23336,8 +23425,9 @@
       <c r="W75" s="18">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y75" s="26"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1215</v>
       </c>
@@ -23394,8 +23484,11 @@
       <c r="V76" s="18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y76" s="27">
+        <v>2.4400000000000002E-13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>1217</v>
       </c>
@@ -23458,8 +23551,9 @@
       <c r="W77" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y77" s="26"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>32</v>
       </c>
@@ -23504,8 +23598,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y78" s="26"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1219</v>
       </c>
@@ -23568,8 +23663,9 @@
       <c r="V79" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y79" s="26"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1221</v>
       </c>
@@ -23611,8 +23707,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y80" s="26"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1223</v>
       </c>
@@ -23654,8 +23751,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y81" s="26"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1813</v>
       </c>
@@ -23697,8 +23795,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y82" s="26"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1815</v>
       </c>
@@ -23740,8 +23839,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y83" s="26"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -23786,8 +23886,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y84" s="26"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>1306</v>
       </c>
@@ -23850,8 +23951,11 @@
       <c r="W85" s="18">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y85" s="27">
+        <v>5.3000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1308</v>
       </c>
@@ -23893,8 +23997,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y86" s="26"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>426</v>
       </c>
@@ -23939,8 +24044,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y87" s="26"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>428</v>
       </c>
@@ -23986,8 +24092,9 @@
         <v>100000</v>
       </c>
       <c r="T88" s="24"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y88" s="26"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>431</v>
       </c>
@@ -24032,8 +24139,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y89" s="26"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>433</v>
       </c>
@@ -24081,8 +24189,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y90" s="26"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>435</v>
       </c>
@@ -24130,8 +24239,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y91" s="26"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>437</v>
       </c>
@@ -24176,8 +24286,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y92" s="26"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>1381</v>
       </c>
@@ -24222,8 +24333,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y93" s="26"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>439</v>
       </c>
@@ -24283,8 +24395,9 @@
       <c r="V94" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y94" s="26"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>442</v>
       </c>
@@ -24329,8 +24442,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y95" s="26"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>444</v>
       </c>
@@ -24375,8 +24489,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y96" s="26"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>215</v>
       </c>
@@ -24421,8 +24536,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y97" s="26"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>218</v>
       </c>
@@ -24485,8 +24601,11 @@
       <c r="W98" s="18">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y98" s="27">
+        <v>7.8999999999999998E-15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>1326</v>
       </c>
@@ -24546,8 +24665,9 @@
       <c r="V99" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y99" s="26"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>281</v>
       </c>
@@ -24613,8 +24733,11 @@
       <c r="W100" s="18">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y100" s="27">
+        <v>1.1999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>283</v>
       </c>
@@ -24680,8 +24803,9 @@
       <c r="W101" s="18">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y101" s="26"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>627</v>
       </c>
@@ -24726,8 +24850,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y102" s="26"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>629</v>
       </c>
@@ -24772,8 +24897,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y103" s="26"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>1466</v>
       </c>
@@ -24839,8 +24965,11 @@
       <c r="W104" s="18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y104" s="27">
+        <v>1.7E-14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>631</v>
       </c>
@@ -24885,8 +25014,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y105" s="26"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>633</v>
       </c>
@@ -24934,8 +25064,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y106" s="26"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>636</v>
       </c>
@@ -25001,8 +25132,9 @@
       <c r="W107" s="18">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y107" s="26"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>638</v>
       </c>
@@ -25068,8 +25200,11 @@
       <c r="W108" s="18">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y108" s="27">
+        <v>1.0199999999999999E-13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>641</v>
       </c>
@@ -25114,8 +25249,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y109" s="26"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>643</v>
       </c>
@@ -25160,8 +25296,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y110" s="26"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>1561</v>
       </c>
@@ -25206,8 +25343,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y111" s="26"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1563</v>
       </c>
@@ -25252,8 +25390,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y112" s="26"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>831</v>
       </c>
@@ -25298,8 +25437,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y113" s="26"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>1565</v>
       </c>
@@ -25344,8 +25484,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y114" s="26"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>1568</v>
       </c>
@@ -25411,8 +25552,11 @@
       <c r="W115" s="18">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y115" s="27">
+        <v>3.1E-14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>833</v>
       </c>
@@ -25478,8 +25622,11 @@
       <c r="W116" s="18">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y116" s="27">
+        <v>3.8999999999999998E-14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>835</v>
       </c>
@@ -25545,8 +25692,9 @@
       <c r="W117" s="18">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y117" s="26"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>837</v>
       </c>
@@ -25612,8 +25760,11 @@
       <c r="W118" s="18">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y118" s="27">
+        <v>2.1499999999999999E-13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>168</v>
       </c>
@@ -25655,8 +25806,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y119" s="26"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>170</v>
       </c>
@@ -25716,8 +25868,9 @@
       <c r="W120" s="18">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y120" s="26"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>172</v>
       </c>
@@ -25780,8 +25933,11 @@
       <c r="W121" s="18">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y121" s="27">
+        <v>1.0200000000000001E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>174</v>
       </c>
@@ -25844,8 +26000,11 @@
       <c r="W122" s="18" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y122" s="27">
+        <v>9.9299999999999991E-13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>178</v>
       </c>
@@ -25908,8 +26067,11 @@
       <c r="W123" s="18" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y123" s="27">
+        <v>1.0050000000000001E-12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>182</v>
       </c>
@@ -25972,8 +26134,11 @@
       <c r="W124" s="18" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y124" s="27">
+        <v>9.7299999999999999E-13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>185</v>
       </c>
@@ -26036,8 +26201,11 @@
       <c r="W125" s="18">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y125" s="27">
+        <v>1.9899999999999998E-12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>1310</v>
       </c>
@@ -26100,8 +26268,11 @@
       <c r="W126" s="18">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y126" s="27">
+        <v>3.3009999999999998E-11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1830</v>
       </c>
@@ -26170,8 +26341,9 @@
       <c r="W127" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y127" s="26"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>255</v>
       </c>
@@ -26237,8 +26409,11 @@
       <c r="W128" s="18">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y128" s="27">
+        <v>3.8999999999999998E-14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>257</v>
       </c>
@@ -26286,8 +26461,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y129" s="26"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>259</v>
       </c>
@@ -26332,8 +26508,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y130" s="26"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>1809</v>
       </c>
@@ -26384,8 +26561,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y131" s="26"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>141</v>
       </c>
@@ -26433,8 +26611,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y132" s="26"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>1811</v>
       </c>
@@ -26482,8 +26661,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y133" s="26"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>143</v>
       </c>
@@ -26549,8 +26729,11 @@
       <c r="W134" s="18">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y134" s="27">
+        <v>9.9299999999999991E-13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>146</v>
       </c>
@@ -26616,8 +26799,11 @@
       <c r="W135" s="18" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y135" s="27">
+        <v>9.7299999999999999E-13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>150</v>
       </c>
@@ -26683,8 +26869,11 @@
       <c r="W136" s="18">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y136" s="27">
+        <v>9.4000000000000003E-13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>153</v>
       </c>
@@ -26750,8 +26939,11 @@
       <c r="W137" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y137" s="27">
+        <v>8.9400000000000003E-13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>156</v>
       </c>
@@ -26817,8 +27009,11 @@
       <c r="W138" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y138" s="27">
+        <v>8.8399999999999997E-13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>158</v>
       </c>
@@ -26884,8 +27079,11 @@
       <c r="W139" s="18" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y139" s="27">
+        <v>8.52E-13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>162</v>
       </c>
@@ -26951,8 +27149,11 @@
       <c r="W140" s="18" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y140" s="27">
+        <v>3.4399999999999999E-12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>1304</v>
       </c>
@@ -26997,8 +27198,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y141" s="26"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>1825</v>
       </c>
@@ -27049,8 +27251,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y142" s="26"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>325</v>
       </c>
@@ -27110,8 +27313,9 @@
       <c r="V143" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y143" s="26"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>328</v>
       </c>
@@ -27177,8 +27381,11 @@
       <c r="W144" s="18">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y144" s="27">
+        <v>5.9100000000000001E-13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>1348</v>
       </c>
@@ -27244,8 +27451,11 @@
       <c r="W145" s="18">
         <v>65</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y145" s="27">
+        <v>2.3E-14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>330</v>
       </c>
@@ -27305,8 +27515,11 @@
       <c r="V146" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y146" s="27">
+        <v>1.6E-13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>1351</v>
       </c>
@@ -27372,8 +27585,9 @@
       <c r="W147" s="18" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y147" s="26"/>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>332</v>
       </c>
@@ -27439,8 +27653,11 @@
       <c r="W148" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y148" s="27">
+        <v>4.15E-13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>1355</v>
       </c>
@@ -27485,8 +27702,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y149" s="26"/>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>334</v>
       </c>
@@ -27544,8 +27762,9 @@
         <v>100</v>
       </c>
       <c r="W150" s="12"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y150" s="26"/>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>336</v>
       </c>
@@ -27590,8 +27809,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y151" s="26"/>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>304</v>
       </c>
@@ -27636,8 +27856,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y152" s="26"/>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>306</v>
       </c>
@@ -27682,8 +27903,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y153" s="26"/>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1337</v>
       </c>
@@ -27749,8 +27971,9 @@
       <c r="W154" s="18" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y154" s="26"/>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>779</v>
       </c>
@@ -27809,8 +28032,9 @@
         <v>35</v>
       </c>
       <c r="W155" s="23"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y155" s="26"/>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>781</v>
       </c>
@@ -27858,8 +28082,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y156" s="26"/>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>783</v>
       </c>
@@ -27928,8 +28153,9 @@
       <c r="W157" s="18">
         <v>23</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y157" s="26"/>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>786</v>
       </c>
@@ -27977,8 +28203,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y158" s="26"/>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>1536</v>
       </c>
@@ -28047,8 +28274,9 @@
       <c r="W159" s="18">
         <v>24</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y159" s="26"/>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>788</v>
       </c>
@@ -28111,8 +28339,9 @@
       <c r="V160" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y160" s="26"/>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>791</v>
       </c>
@@ -28181,8 +28410,11 @@
       <c r="W161" s="18">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y161" s="27">
+        <v>2.7399999999999999E-13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>1539</v>
       </c>
@@ -28251,8 +28483,9 @@
       <c r="W162" s="18" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y162" s="26"/>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>793</v>
       </c>
@@ -28321,8 +28554,11 @@
       <c r="W163" s="18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y163" s="27">
+        <v>1.1999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>1543</v>
       </c>
@@ -28370,8 +28606,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y164" s="26"/>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>796</v>
       </c>
@@ -28440,8 +28677,9 @@
       <c r="W165" s="18">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y165" s="26"/>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>798</v>
       </c>
@@ -28510,8 +28748,11 @@
       <c r="W166" s="18">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y166" s="27">
+        <v>1.3E-13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>800</v>
       </c>
@@ -28559,8 +28800,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y167" s="26"/>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>352</v>
       </c>
@@ -28605,8 +28847,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y168" s="26"/>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>354</v>
       </c>
@@ -28651,8 +28894,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y169" s="26"/>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>356</v>
       </c>
@@ -28712,8 +28956,9 @@
       <c r="V170" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y170" s="26"/>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>359</v>
       </c>
@@ -28761,8 +29006,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y171" s="26"/>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>961</v>
       </c>
@@ -28804,8 +29050,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y172" s="26"/>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1605</v>
       </c>
@@ -28847,8 +29094,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y173" s="26"/>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>1607</v>
       </c>
@@ -28893,8 +29141,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y174" s="26"/>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>963</v>
       </c>
@@ -28957,8 +29206,9 @@
       <c r="W175" s="18" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y175" s="26"/>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>967</v>
       </c>
@@ -29021,6 +29271,7 @@
       <c r="W176" s="18">
         <v>8.5</v>
       </c>
+      <c r="Y176" s="26"/>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
@@ -29827,7 +30078,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>914</v>
       </c>
@@ -29872,8 +30123,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y193" s="26"/>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>917</v>
       </c>
@@ -29939,8 +30191,11 @@
       <c r="W194" s="18">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y194" s="27">
+        <v>1.53E-13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>919</v>
       </c>
@@ -30006,8 +30261,9 @@
       <c r="W195" s="18">
         <v>27</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y195" s="26"/>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>923</v>
       </c>
@@ -30070,8 +30326,11 @@
       <c r="W196" s="18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y196" s="27">
+        <v>2.37E-13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>925</v>
       </c>
@@ -30134,8 +30393,11 @@
       <c r="W197" s="18">
         <v>43</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y197" s="27">
+        <v>1.04E-13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>927</v>
       </c>
@@ -30180,8 +30442,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y198" s="26"/>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>929</v>
       </c>
@@ -30223,8 +30486,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y199" s="26"/>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>931</v>
       </c>
@@ -30266,8 +30530,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y200" s="26"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>227</v>
       </c>
@@ -30309,8 +30574,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y201" s="26"/>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>229</v>
       </c>
@@ -30367,8 +30633,9 @@
       <c r="V202" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y202" s="26"/>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>318</v>
       </c>
@@ -30434,8 +30701,9 @@
       <c r="W203" s="18">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y203" s="26"/>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>1346</v>
       </c>
@@ -30501,8 +30769,11 @@
       <c r="W204" s="18">
         <v>42</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y204" s="27">
+        <v>9.0000000000000003E-16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>321</v>
       </c>
@@ -30568,8 +30839,11 @@
       <c r="W205" s="18">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y205" s="27">
+        <v>2.08E-13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>323</v>
       </c>
@@ -30617,8 +30891,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y206" s="26"/>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>193</v>
       </c>
@@ -30660,8 +30935,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y207" s="26"/>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>1821</v>
       </c>
@@ -30709,8 +30985,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y208" s="26"/>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>195</v>
       </c>
@@ -30770,8 +31047,9 @@
       <c r="W209" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y209" s="26"/>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>198</v>
       </c>
@@ -30831,8 +31109,9 @@
       <c r="W210" s="18">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y210" s="26"/>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>200</v>
       </c>
@@ -30874,8 +31153,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y211" s="26"/>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1233</v>
       </c>
@@ -30917,8 +31197,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y212" s="26"/>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>1235</v>
       </c>
@@ -30960,8 +31241,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y213" s="26"/>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>374</v>
       </c>
@@ -31006,8 +31288,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y214" s="26"/>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>376</v>
       </c>
@@ -31052,8 +31335,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y215" s="26"/>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1363</v>
       </c>
@@ -31101,8 +31385,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y216" s="26"/>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>378</v>
       </c>
@@ -31150,8 +31435,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y217" s="26"/>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>380</v>
       </c>
@@ -31196,8 +31482,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y218" s="26"/>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>382</v>
       </c>
@@ -31257,8 +31544,9 @@
       <c r="V219" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y219" s="26"/>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>384</v>
       </c>
@@ -31303,8 +31591,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y220" s="26"/>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>933</v>
       </c>
@@ -31346,8 +31635,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y221" s="26"/>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>1588</v>
       </c>
@@ -31392,8 +31682,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y222" s="26"/>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>935</v>
       </c>
@@ -31435,8 +31726,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y223" s="26"/>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>28</v>
       </c>
@@ -31481,8 +31773,11 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y224" s="27">
+        <v>5.22E-13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>1590</v>
       </c>
@@ -31524,8 +31819,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y225" s="26"/>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>937</v>
       </c>
@@ -31567,8 +31863,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y226" s="26"/>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>30</v>
       </c>
@@ -31610,8 +31907,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y227" s="26"/>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>1592</v>
       </c>
@@ -31674,8 +31972,11 @@
       <c r="W228" s="18">
         <v>51</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y228" s="27">
+        <v>2.3E-14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>939</v>
       </c>
@@ -31738,8 +32039,9 @@
       <c r="W229" s="18">
         <v>27</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y229" s="26"/>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>386</v>
       </c>
@@ -31784,8 +32086,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y230" s="26"/>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>388</v>
       </c>
@@ -31830,8 +32133,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y231" s="26"/>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>1365</v>
       </c>
@@ -31879,8 +32183,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y232" s="26"/>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>390</v>
       </c>
@@ -31925,8 +32230,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y233" s="26"/>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>1367</v>
       </c>
@@ -31992,8 +32298,9 @@
       <c r="W234" s="18" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y234" s="26"/>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>392</v>
       </c>
@@ -32038,8 +32345,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y235" s="26"/>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>394</v>
       </c>
@@ -32087,8 +32395,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y236" s="26"/>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>396</v>
       </c>
@@ -32133,8 +32442,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y237" s="26"/>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>204</v>
       </c>
@@ -32197,8 +32507,11 @@
       <c r="W238" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y238" s="27">
+        <v>9.1E-16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>1637</v>
       </c>
@@ -32244,8 +32557,9 @@
         <v>1000000</v>
       </c>
       <c r="X239" s="18"/>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y239" s="26"/>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>1639</v>
       </c>
@@ -32291,8 +32605,9 @@
         <v>1000000</v>
       </c>
       <c r="X240" s="18"/>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y240" s="26"/>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>1039</v>
       </c>
@@ -32334,8 +32649,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y241" s="26"/>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>1641</v>
       </c>
@@ -32381,8 +32697,9 @@
         <v>1000000</v>
       </c>
       <c r="X242" s="18"/>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y242" s="26"/>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>1643</v>
       </c>
@@ -32425,8 +32742,9 @@
         <v>100000</v>
       </c>
       <c r="X243" s="18"/>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y243" s="26"/>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>1646</v>
       </c>
@@ -32469,8 +32787,9 @@
         <v>1000000</v>
       </c>
       <c r="X244" s="18"/>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y244" s="26"/>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>1649</v>
       </c>
@@ -32513,8 +32832,9 @@
         <v>1000000</v>
       </c>
       <c r="X245" s="18"/>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y245" s="26"/>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>1652</v>
       </c>
@@ -32557,8 +32877,9 @@
         <v>1000000</v>
       </c>
       <c r="X246" s="18"/>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y246" s="26"/>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>1041</v>
       </c>
@@ -32615,8 +32936,11 @@
       <c r="V247" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y247" s="27">
+        <v>1.1600000000000001E-13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>1043</v>
       </c>
@@ -32661,8 +32985,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y248" s="26"/>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>1045</v>
       </c>
@@ -32707,8 +33032,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y249" s="26"/>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>1048</v>
       </c>
@@ -32750,8 +33076,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y250" s="26"/>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>1050</v>
       </c>
@@ -32793,8 +33120,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y251" s="26"/>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>1159</v>
       </c>
@@ -32836,8 +33164,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y252" s="26"/>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>1161</v>
       </c>
@@ -32882,8 +33211,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y253" s="26"/>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>1739</v>
       </c>
@@ -32928,8 +33258,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y254" s="26"/>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>1741</v>
       </c>
@@ -32971,8 +33302,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y255" s="26"/>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>1743</v>
       </c>
@@ -33020,8 +33352,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y256" s="26"/>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>1746</v>
       </c>
@@ -33084,8 +33417,9 @@
       <c r="W257" s="18">
         <v>60</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y257" s="26"/>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>1748</v>
       </c>
@@ -33151,8 +33485,9 @@
       <c r="W258" s="18">
         <v>29</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y258" s="26"/>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>1751</v>
       </c>
@@ -33194,8 +33529,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y259" s="26"/>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>1164</v>
       </c>
@@ -33258,8 +33594,11 @@
       <c r="W260" s="18">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y260" s="27">
+        <v>5.3000000000000001E-14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>969</v>
       </c>
@@ -33301,8 +33640,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y261" s="26"/>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>971</v>
       </c>
@@ -33344,8 +33684,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y262" s="26"/>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>973</v>
       </c>
@@ -33385,8 +33726,9 @@
       <c r="Q263" s="11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y263" s="26"/>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>1609</v>
       </c>
@@ -33426,8 +33768,9 @@
       <c r="Q264" s="11">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y264" s="26"/>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>975</v>
       </c>
@@ -33467,8 +33810,9 @@
       <c r="Q265" s="11">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y265" s="26"/>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>1611</v>
       </c>
@@ -33514,8 +33858,9 @@
       <c r="Q266" s="11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y266" s="26"/>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>1614</v>
       </c>
@@ -33561,8 +33906,9 @@
       <c r="Q267" s="11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y267" s="26"/>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>1616</v>
       </c>
@@ -33602,8 +33948,9 @@
       <c r="Q268" s="11">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y268" s="26"/>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>977</v>
       </c>
@@ -33664,8 +34011,9 @@
       <c r="W269" s="18">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y269" s="26"/>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>979</v>
       </c>
@@ -33708,8 +34056,9 @@
       <c r="Q270" s="11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y270" s="26"/>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>982</v>
       </c>
@@ -33749,8 +34098,9 @@
       <c r="Q271" s="11">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y271" s="26"/>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>1839</v>
       </c>
@@ -33767,8 +34117,9 @@
         <v>214</v>
       </c>
       <c r="Q272" s="11"/>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y272" s="26"/>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>742</v>
       </c>
@@ -33813,8 +34164,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y273" s="26"/>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>744</v>
       </c>
@@ -33859,8 +34211,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y274" s="26"/>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>747</v>
       </c>
@@ -33905,8 +34258,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y275" s="26"/>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>1522</v>
       </c>
@@ -33972,8 +34326,9 @@
       <c r="W276" s="18">
         <v>65</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y276" s="26"/>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>749</v>
       </c>
@@ -34021,8 +34376,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y277" s="26"/>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>1525</v>
       </c>
@@ -34088,8 +34444,11 @@
       <c r="W278" s="18">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y278" s="27">
+        <v>8.9999999999999995E-15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>751</v>
       </c>
@@ -34158,8 +34517,9 @@
       <c r="W279" s="18">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y279" s="26"/>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>753</v>
       </c>
@@ -34207,8 +34567,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y280" s="26"/>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>755</v>
       </c>
@@ -34274,8 +34635,11 @@
       <c r="W281" s="18">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y281" s="27">
+        <v>1.1999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>757</v>
       </c>
@@ -34338,8 +34702,9 @@
       <c r="W282" s="18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y282" s="26"/>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>759</v>
       </c>
@@ -34405,8 +34770,9 @@
       <c r="W283" s="18">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y283" s="26"/>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>761</v>
       </c>
@@ -34466,8 +34832,9 @@
       <c r="V284" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y284" s="26"/>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>1527</v>
       </c>
@@ -34512,8 +34879,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y285" s="26"/>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>763</v>
       </c>
@@ -34582,8 +34950,9 @@
       <c r="W286" s="18">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y286" s="26"/>
+    </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>765</v>
       </c>
@@ -34634,8 +35003,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y287" s="26"/>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>767</v>
       </c>
@@ -34698,8 +35068,9 @@
       <c r="V288" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y288" s="26"/>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>646</v>
       </c>
@@ -34744,8 +35115,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y289" s="26"/>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>648</v>
       </c>
@@ -34790,8 +35162,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y290" s="26"/>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>650</v>
       </c>
@@ -34834,8 +35207,9 @@
       <c r="Q291" s="11">
         <v>100000</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y291" s="26"/>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>1468</v>
       </c>
@@ -34901,8 +35275,9 @@
       <c r="W292" s="18">
         <v>47</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y292" s="26"/>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>653</v>
       </c>
@@ -34947,8 +35322,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y293" s="26"/>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>1470</v>
       </c>
@@ -35008,8 +35384,9 @@
       <c r="V294" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y294" s="26"/>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>1474</v>
       </c>
@@ -35075,8 +35452,11 @@
       <c r="W295" s="18">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y295" s="27">
+        <v>5.0999999999999997E-14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>1477</v>
       </c>
@@ -35136,8 +35516,9 @@
       <c r="V296" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y296" s="26"/>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>655</v>
       </c>
@@ -35182,8 +35563,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y297" s="26"/>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>658</v>
       </c>
@@ -35228,8 +35610,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y298" s="26"/>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>660</v>
       </c>
@@ -35274,8 +35657,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y299" s="26"/>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>663</v>
       </c>
@@ -35317,8 +35701,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y300" s="26"/>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>1110</v>
       </c>
@@ -35363,8 +35748,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y301" s="26"/>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>1112</v>
       </c>
@@ -35409,8 +35795,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y302" s="26"/>
+    </row>
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>1114</v>
       </c>
@@ -35455,8 +35842,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y303" s="26"/>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>1116</v>
       </c>
@@ -35501,8 +35889,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y304" s="26"/>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>1118</v>
       </c>
@@ -35547,8 +35936,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y305" s="26"/>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>1698</v>
       </c>
@@ -35593,8 +35983,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y306" s="26"/>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>1700</v>
       </c>
@@ -35639,8 +36030,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y307" s="26"/>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>1702</v>
       </c>
@@ -35685,8 +36077,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y308" s="26"/>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>1704</v>
       </c>
@@ -35749,8 +36142,9 @@
       <c r="W309" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y309" s="26"/>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1706</v>
       </c>
@@ -35785,8 +36179,9 @@
         <v>1332</v>
       </c>
       <c r="Q310" s="11"/>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y310" s="26"/>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>1121</v>
       </c>
@@ -35828,8 +36223,9 @@
       <c r="T311" s="20"/>
       <c r="U311" s="20"/>
       <c r="W311" s="20"/>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y311" s="26"/>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>1124</v>
       </c>
@@ -35892,8 +36288,11 @@
       <c r="W312" s="18">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y312" s="27">
+        <v>1.6199999999999999E-13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>1709</v>
       </c>
@@ -35935,8 +36334,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y313" s="26"/>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>1712</v>
       </c>
@@ -35978,8 +36378,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y314" s="26"/>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>1126</v>
       </c>
@@ -36042,8 +36443,9 @@
       <c r="W315" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y315" s="26"/>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>1128</v>
       </c>
@@ -36085,8 +36487,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y316" s="26"/>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>1131</v>
       </c>
@@ -36128,8 +36531,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y317" s="26"/>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>1133</v>
       </c>
@@ -36171,8 +36575,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y318" s="26"/>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>268</v>
       </c>
@@ -36238,8 +36643,11 @@
       <c r="W319" s="18">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y319" s="27">
+        <v>1.0499999999999999E-13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>271</v>
       </c>
@@ -36305,8 +36713,9 @@
       <c r="W320" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y320" s="26"/>
+    </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>274</v>
       </c>
@@ -36366,8 +36775,9 @@
       <c r="V321" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y321" s="26"/>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>277</v>
       </c>
@@ -36412,8 +36822,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y322" s="26"/>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>279</v>
       </c>
@@ -36458,8 +36869,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y323" s="26"/>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>446</v>
       </c>
@@ -36522,8 +36934,11 @@
       <c r="V324" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y324" s="27">
+        <v>1.9000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>449</v>
       </c>
@@ -36586,8 +37001,11 @@
       <c r="V325" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y325" s="27">
+        <v>8.0999999999999996E-14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>452</v>
       </c>
@@ -36650,8 +37068,9 @@
       <c r="V326" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y326" s="26"/>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>1862</v>
       </c>
@@ -36685,8 +37104,9 @@
         <v>0</v>
       </c>
       <c r="X327" s="18"/>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y327" s="26"/>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>456</v>
       </c>
@@ -36749,8 +37169,9 @@
       <c r="V328" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y328" s="26"/>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>459</v>
       </c>
@@ -36810,8 +37231,9 @@
       <c r="V329" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y329" s="26"/>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>463</v>
       </c>
@@ -36859,8 +37281,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y330" s="26"/>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>817</v>
       </c>
@@ -36905,8 +37328,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y331" s="26"/>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>819</v>
       </c>
@@ -36951,8 +37375,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y332" s="26"/>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>821</v>
       </c>
@@ -36997,8 +37422,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y333" s="26"/>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>1557</v>
       </c>
@@ -37046,8 +37472,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y334" s="26"/>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>1559</v>
       </c>
@@ -37092,8 +37519,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y335" s="26"/>
+    </row>
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>823</v>
       </c>
@@ -37159,6 +37587,7 @@
       <c r="W336" s="18">
         <v>0.6</v>
       </c>
+      <c r="Y336" s="26"/>
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
@@ -37933,7 +38362,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>1037</v>
       </c>
@@ -37978,8 +38407,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y353" s="26"/>
+    </row>
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>1823</v>
       </c>
@@ -38027,8 +38457,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y354" s="26"/>
+    </row>
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>202</v>
       </c>
@@ -38070,8 +38501,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y355" s="26"/>
+    </row>
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>239</v>
       </c>
@@ -38116,8 +38548,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y356" s="26"/>
+    </row>
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>308</v>
       </c>
@@ -38162,8 +38595,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y357" s="26"/>
+    </row>
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>310</v>
       </c>
@@ -38229,8 +38663,9 @@
       <c r="W358" s="18">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y358" s="26"/>
+    </row>
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>312</v>
       </c>
@@ -38275,8 +38710,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y359" s="26"/>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>1341</v>
       </c>
@@ -38342,8 +38778,11 @@
       <c r="W360" s="18" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y360" s="27">
+        <v>7.9999999999999998E-16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>1344</v>
       </c>
@@ -38403,8 +38842,11 @@
       <c r="V361" s="18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y361" s="27">
+        <v>1.43E-13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>315</v>
       </c>
@@ -38464,8 +38906,9 @@
       <c r="V362" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y362" s="26"/>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>548</v>
       </c>
@@ -38510,8 +38953,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y363" s="26"/>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>543</v>
       </c>
@@ -38568,8 +39012,9 @@
       <c r="V364" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y364" s="26"/>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>1422</v>
       </c>
@@ -38635,8 +39080,11 @@
       <c r="W365" s="18">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y365" s="27">
+        <v>6.8000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>1424</v>
       </c>
@@ -38681,8 +39129,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y366" s="26"/>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>545</v>
       </c>
@@ -38748,8 +39197,9 @@
       <c r="W367" s="18">
         <v>22</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y367" s="26"/>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>220</v>
       </c>
@@ -38794,8 +39244,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y368" s="26"/>
+    </row>
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>234</v>
       </c>
@@ -38858,8 +39309,11 @@
       <c r="W369" s="18">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y369" s="27">
+        <v>3.8099999999999999E-13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>236</v>
       </c>
@@ -38916,8 +39370,9 @@
       <c r="V370" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y370" s="26"/>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>526</v>
       </c>
@@ -38959,8 +39414,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y371" s="26"/>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>528</v>
       </c>
@@ -39002,8 +39458,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y372" s="26"/>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>1412</v>
       </c>
@@ -39045,8 +39502,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y373" s="26"/>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>530</v>
       </c>
@@ -39091,8 +39549,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y374" s="26"/>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>1415</v>
       </c>
@@ -39158,8 +39617,11 @@
       <c r="W375" s="18" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y375" s="27">
+        <v>4.7999999999999999E-15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>532</v>
       </c>
@@ -39225,8 +39687,11 @@
       <c r="W376" s="18">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y376" s="27">
+        <v>2.7399999999999999E-13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>534</v>
       </c>
@@ -39286,8 +39751,11 @@
       <c r="V377" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y377" s="27">
+        <v>1.3E-13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1419</v>
       </c>
@@ -39332,8 +39800,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y378" s="26"/>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>536</v>
       </c>
@@ -39378,8 +39847,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y379" s="26"/>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>538</v>
       </c>
@@ -39439,8 +39909,9 @@
       <c r="V380" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y380" s="26"/>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>541</v>
       </c>
@@ -39485,8 +39956,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y381" s="26"/>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>859</v>
       </c>
@@ -39531,8 +40003,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y382" s="26"/>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>1573</v>
       </c>
@@ -39577,8 +40050,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y383" s="26"/>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>861</v>
       </c>
@@ -39623,8 +40097,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y384" s="26"/>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>1575</v>
       </c>
@@ -39669,8 +40144,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y385" s="26"/>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>863</v>
       </c>
@@ -39712,8 +40188,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y386" s="26"/>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>865</v>
       </c>
@@ -39776,8 +40253,9 @@
       <c r="W387" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y387" s="26"/>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>867</v>
       </c>
@@ -39834,8 +40312,9 @@
       <c r="V388" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y388" s="26"/>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>869</v>
       </c>
@@ -39877,8 +40356,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y389" s="26"/>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>232</v>
       </c>
@@ -39923,8 +40403,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y390" s="26"/>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>1358</v>
       </c>
@@ -39969,8 +40450,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y391" s="26"/>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>339</v>
       </c>
@@ -40015,8 +40497,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y392" s="26"/>
+    </row>
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>341</v>
       </c>
@@ -40082,8 +40565,11 @@
       <c r="W393" s="18" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y393" s="27">
+        <v>1.0000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>345</v>
       </c>
@@ -40149,8 +40635,11 @@
       <c r="W394" s="18">
         <v>91</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y394" s="27">
+        <v>2.9999999999999998E-15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>348</v>
       </c>
@@ -40210,8 +40699,9 @@
       <c r="V395" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y395" s="26"/>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>350</v>
       </c>
@@ -40256,8 +40746,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y396" s="26"/>
+    </row>
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>1781</v>
       </c>
@@ -40299,8 +40790,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y397" s="26"/>
+    </row>
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1783</v>
       </c>
@@ -40342,8 +40834,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y398" s="26"/>
+    </row>
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>1270</v>
       </c>
@@ -40385,8 +40878,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y399" s="26"/>
+    </row>
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>1785</v>
       </c>
@@ -40431,8 +40925,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y400" s="26"/>
+    </row>
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>1787</v>
       </c>
@@ -40480,8 +40975,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y401" s="26"/>
+    </row>
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>1272</v>
       </c>
@@ -40529,8 +41025,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y402" s="26"/>
+    </row>
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>113</v>
       </c>
@@ -40593,8 +41090,11 @@
       <c r="W403" s="18">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y403" s="27">
+        <v>8.4900000000000002E-13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>1275</v>
       </c>
@@ -40636,8 +41136,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y404" s="26"/>
+    </row>
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>1277</v>
       </c>
@@ -40700,8 +41201,9 @@
       <c r="W405" s="18">
         <v>17</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y405" s="26"/>
+    </row>
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>1279</v>
       </c>
@@ -40755,8 +41257,9 @@
       <c r="V406" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y406" s="26"/>
+    </row>
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>223</v>
       </c>
@@ -40798,8 +41301,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y407" s="26"/>
+    </row>
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>225</v>
       </c>
@@ -40841,8 +41345,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y408" s="26"/>
+    </row>
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>1686</v>
       </c>
@@ -40887,8 +41392,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y409" s="26"/>
+    </row>
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>1101</v>
       </c>
@@ -40933,8 +41439,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y410" s="26"/>
+    </row>
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>1688</v>
       </c>
@@ -40979,8 +41486,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y411" s="26"/>
+    </row>
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>1690</v>
       </c>
@@ -41046,8 +41554,11 @@
       <c r="W412" s="18">
         <v>27</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y412" s="27">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>1692</v>
       </c>
@@ -41092,8 +41603,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y413" s="26"/>
+    </row>
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>1103</v>
       </c>
@@ -41159,8 +41671,9 @@
       <c r="W414" s="18">
         <v>24</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y414" s="26"/>
+    </row>
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>1695</v>
       </c>
@@ -41226,8 +41739,9 @@
       <c r="W415" s="18" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y415" s="26"/>
+    </row>
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>1105</v>
       </c>
@@ -41293,8 +41807,9 @@
       <c r="W416" s="18">
         <v>17</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y416" s="26"/>
+    </row>
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>1108</v>
       </c>
@@ -41342,8 +41857,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y417" s="26"/>
+    </row>
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>248</v>
       </c>
@@ -41409,8 +41925,9 @@
       <c r="W418" s="18">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y418" s="26"/>
+    </row>
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>250</v>
       </c>
@@ -41476,8 +41993,9 @@
       <c r="W419" s="18">
         <v>57</v>
       </c>
-    </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y419" s="26"/>
+    </row>
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>81</v>
       </c>
@@ -41522,8 +42040,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y420" s="26"/>
+    </row>
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>1777</v>
       </c>
@@ -41571,8 +42090,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y421" s="26"/>
+    </row>
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>1779</v>
       </c>
@@ -41635,8 +42155,9 @@
       <c r="V422" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y422" s="26"/>
+    </row>
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>83</v>
       </c>
@@ -41699,8 +42220,11 @@
       <c r="W423" s="18" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y423" s="27">
+        <v>8.0100000000000002E-13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>1257</v>
       </c>
@@ -41742,8 +42266,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y424" s="26"/>
+    </row>
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>1259</v>
       </c>
@@ -41806,8 +42331,9 @@
       <c r="W425" s="18">
         <v>16</v>
       </c>
-    </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y425" s="26"/>
+    </row>
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>1261</v>
       </c>
@@ -41849,8 +42375,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y426" s="26"/>
+    </row>
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>1263</v>
       </c>
@@ -41889,8 +42416,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y427" s="26"/>
+    </row>
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>1185</v>
       </c>
@@ -41932,8 +42460,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y428" s="26"/>
+    </row>
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>1762</v>
       </c>
@@ -41975,8 +42504,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y429" s="26"/>
+    </row>
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>1188</v>
       </c>
@@ -42018,8 +42548,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y430" s="26"/>
+    </row>
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>1764</v>
       </c>
@@ -42061,8 +42592,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y431" s="26"/>
+    </row>
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>1190</v>
       </c>
@@ -42107,8 +42639,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y432" s="26"/>
+    </row>
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>1766</v>
       </c>
@@ -42153,8 +42686,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y433" s="26"/>
+    </row>
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>1768</v>
       </c>
@@ -42199,8 +42733,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y434" s="26"/>
+    </row>
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>1771</v>
       </c>
@@ -42263,8 +42798,9 @@
       <c r="W435" s="18">
         <v>57</v>
       </c>
-    </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y435" s="26"/>
+    </row>
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>1773</v>
       </c>
@@ -42309,8 +42845,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y436" s="26"/>
+    </row>
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>1192</v>
       </c>
@@ -42352,8 +42889,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y437" s="26"/>
+    </row>
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>1194</v>
       </c>
@@ -42416,8 +42954,11 @@
       <c r="W438" s="18" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y438" s="27">
+        <v>9.3400000000000006E-13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>1197</v>
       </c>
@@ -42459,8 +43000,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y439" s="26"/>
+    </row>
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>1199</v>
       </c>
@@ -42523,8 +43065,9 @@
       <c r="W440" s="18">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y440" s="26"/>
+    </row>
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>1201</v>
       </c>
@@ -42566,8 +43109,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y441" s="26"/>
+    </row>
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>1459</v>
       </c>
@@ -42612,8 +43156,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y442" s="26"/>
+    </row>
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>596</v>
       </c>
@@ -42658,8 +43203,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y443" s="26"/>
+    </row>
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>1461</v>
       </c>
@@ -42725,8 +43271,9 @@
       <c r="W444" s="18">
         <v>72</v>
       </c>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y444" s="26"/>
+    </row>
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>598</v>
       </c>
@@ -42774,8 +43321,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000000</v>
       </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y445" s="26"/>
+    </row>
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>600</v>
       </c>
@@ -42841,8 +43389,9 @@
       <c r="W446" s="18">
         <v>24</v>
       </c>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y446" s="26"/>
+    </row>
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>871</v>
       </c>
@@ -42884,8 +43433,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y447" s="26"/>
+    </row>
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>1578</v>
       </c>
@@ -42930,8 +43480,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y448" s="26"/>
+    </row>
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>1580</v>
       </c>
@@ -42976,8 +43527,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y449" s="26"/>
+    </row>
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>1582</v>
       </c>
@@ -43022,8 +43574,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y450" s="26"/>
+    </row>
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>873</v>
       </c>
@@ -43068,8 +43621,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y451" s="26"/>
+    </row>
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>875</v>
       </c>
@@ -43132,8 +43686,11 @@
       <c r="W452" s="18">
         <v>53</v>
       </c>
-    </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y452" s="27">
+        <v>9.9000000000000007E-15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>877</v>
       </c>
@@ -43178,8 +43735,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y453" s="26"/>
+    </row>
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>879</v>
       </c>
@@ -43224,8 +43782,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y454" s="26"/>
+    </row>
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>882</v>
       </c>
@@ -43288,8 +43847,9 @@
       <c r="W455" s="18">
         <v>14</v>
       </c>
-    </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y455" s="26"/>
+    </row>
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>884</v>
       </c>
@@ -43331,8 +43891,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y456" s="26"/>
+    </row>
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>886</v>
       </c>
@@ -43377,8 +43938,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y457" s="26"/>
+    </row>
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>1225</v>
       </c>
@@ -43420,8 +43982,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y458" s="26"/>
+    </row>
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>1227</v>
       </c>
@@ -43475,8 +44038,9 @@
       <c r="V459" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y459" s="26"/>
+    </row>
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>1229</v>
       </c>
@@ -43528,8 +44092,9 @@
       <c r="V460" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y460" s="26"/>
+    </row>
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>35</v>
       </c>
@@ -43590,8 +44155,11 @@
       <c r="W461" s="18" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y461" s="27">
+        <v>8.6500000000000005E-13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>1858</v>
       </c>
@@ -43621,8 +44189,9 @@
       </c>
       <c r="Q462" s="11"/>
       <c r="X462" s="18"/>
-    </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y462" s="26"/>
+    </row>
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>839</v>
       </c>
@@ -43667,8 +44236,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y463" s="26"/>
+    </row>
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>841</v>
       </c>
@@ -43713,6 +44283,7 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
+      <c r="Y464" s="26"/>
     </row>
     <row r="465" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
@@ -44540,7 +45111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>1730</v>
       </c>
@@ -44597,8 +45168,9 @@
       <c r="V481" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y481" s="26"/>
+    </row>
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>1140</v>
       </c>
@@ -44640,8 +45212,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y482" s="26"/>
+    </row>
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>1142</v>
       </c>
@@ -44683,8 +45256,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y483" s="26"/>
+    </row>
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>1833</v>
       </c>
@@ -44701,8 +45275,9 @@
         <v>26</v>
       </c>
       <c r="Q484" s="11"/>
-    </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y484" s="26"/>
+    </row>
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>1789</v>
       </c>
@@ -44771,8 +45346,9 @@
       <c r="W485" s="18">
         <v>85</v>
       </c>
-    </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y485" s="26"/>
+    </row>
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>1791</v>
       </c>
@@ -44817,8 +45393,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y486" s="26"/>
+    </row>
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>117</v>
       </c>
@@ -44884,8 +45461,11 @@
       <c r="W487" s="18">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y487" s="27">
+        <v>9.3699999999999995E-13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>1793</v>
       </c>
@@ -44951,8 +45531,11 @@
       <c r="W488" s="18" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y488" s="27">
+        <v>9.7000000000000006E-15</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>120</v>
       </c>
@@ -45018,8 +45601,11 @@
       <c r="W489" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y489" s="27">
+        <v>8.9200000000000004E-13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>123</v>
       </c>
@@ -45085,8 +45671,11 @@
       <c r="W490" s="18" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y490" s="27">
+        <v>8.3599999999999997E-13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>127</v>
       </c>
@@ -45152,8 +45741,11 @@
       <c r="W491" s="18" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y491" s="27">
+        <v>8.3799999999999996E-13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>1281</v>
       </c>
@@ -45219,8 +45811,11 @@
       <c r="W492" s="18">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y492" s="27">
+        <v>7.9999999999999998E-16</v>
+      </c>
+    </row>
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>129</v>
       </c>
@@ -45286,8 +45881,11 @@
       <c r="W493" s="18" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y493" s="27">
+        <v>7.9500000000000005E-13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>1283</v>
       </c>
@@ -45350,8 +45948,9 @@
       <c r="W494" s="18" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y494" s="26"/>
+    </row>
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>133</v>
       </c>
@@ -45417,8 +46016,11 @@
       <c r="W495" s="18" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y495" s="27">
+        <v>7.83E-13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>1286</v>
       </c>
@@ -45463,8 +46065,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y496" s="26"/>
+    </row>
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>1288</v>
       </c>
@@ -45509,8 +46112,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y497" s="26"/>
+    </row>
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>48</v>
       </c>
@@ -45573,8 +46177,9 @@
       <c r="W498" s="18">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y498" s="26"/>
+    </row>
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>52</v>
       </c>
@@ -45637,8 +46242,9 @@
       <c r="W499" s="18">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y499" s="26"/>
+    </row>
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>1237</v>
       </c>
@@ -45701,8 +46307,9 @@
       <c r="W500" s="18">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y500" s="26"/>
+    </row>
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>55</v>
       </c>
@@ -45765,8 +46372,11 @@
       <c r="W501" s="18" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y501" s="27">
+        <v>4.41E-12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>1240</v>
       </c>
@@ -45808,8 +46418,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y502" s="26"/>
+    </row>
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>1242</v>
       </c>
@@ -45872,8 +46483,11 @@
       <c r="W503" s="18" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y503" s="27">
+        <v>1.9400000000000001E-13</v>
+      </c>
+    </row>
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>465</v>
       </c>
@@ -45918,8 +46532,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y504" s="26"/>
+    </row>
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>467</v>
       </c>
@@ -45967,8 +46582,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y505" s="26"/>
+    </row>
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>1384</v>
       </c>
@@ -46013,8 +46629,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y506" s="26"/>
+    </row>
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>469</v>
       </c>
@@ -46059,8 +46676,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y507" s="26"/>
+    </row>
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>1387</v>
       </c>
@@ -46108,8 +46726,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y508" s="26"/>
+    </row>
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>472</v>
       </c>
@@ -46157,8 +46776,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y509" s="26"/>
+    </row>
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>474</v>
       </c>
@@ -46224,8 +46844,9 @@
       <c r="W510" s="18">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y510" s="26"/>
+    </row>
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>476</v>
       </c>
@@ -46270,8 +46891,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y511" s="26"/>
+    </row>
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>478</v>
       </c>
@@ -46316,6 +46938,7 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
+      <c r="Y512" s="26"/>
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
@@ -47083,7 +47706,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>1453</v>
       </c>
@@ -47131,8 +47754,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y529" s="26"/>
+    </row>
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1456</v>
       </c>
@@ -47180,8 +47804,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000000</v>
       </c>
-    </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y530" s="26"/>
+    </row>
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>589</v>
       </c>
@@ -47247,8 +47872,9 @@
       <c r="W531" s="18">
         <v>37</v>
       </c>
-    </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y531" s="26"/>
+    </row>
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>591</v>
       </c>
@@ -47293,8 +47919,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y532" s="26"/>
+    </row>
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>594</v>
       </c>
@@ -47339,8 +47966,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y533" s="26"/>
+    </row>
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>580</v>
       </c>
@@ -47388,8 +48016,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y534" s="26"/>
+    </row>
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>582</v>
       </c>
@@ -47434,8 +48063,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y535" s="26"/>
+    </row>
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>44</v>
       </c>
@@ -47492,8 +48122,9 @@
       <c r="V536" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y536" s="26"/>
+    </row>
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>573</v>
       </c>
@@ -47559,8 +48190,11 @@
       <c r="W537" s="18">
         <v>19</v>
       </c>
-    </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y537" s="27">
+        <v>9.4999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>575</v>
       </c>
@@ -47620,8 +48254,9 @@
       <c r="V538" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y538" s="26"/>
+    </row>
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>578</v>
       </c>
@@ -47687,8 +48322,11 @@
       <c r="W539" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y539" s="27">
+        <v>2.5800000000000001E-13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1443</v>
       </c>
@@ -47733,8 +48371,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y540" s="26"/>
+    </row>
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1445</v>
       </c>
@@ -47800,8 +48439,9 @@
       <c r="W541" s="18">
         <v>91</v>
       </c>
-    </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y541" s="26"/>
+    </row>
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>253</v>
       </c>
@@ -47867,8 +48507,11 @@
       <c r="W542" s="18">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y542" s="27">
+        <v>7.8000000000000005E-15</v>
+      </c>
+    </row>
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>685</v>
       </c>
@@ -47910,8 +48553,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y543" s="26"/>
+    </row>
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>687</v>
       </c>
@@ -47953,8 +48597,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y544" s="26"/>
+    </row>
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>689</v>
       </c>
@@ -47996,8 +48641,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y545" s="26"/>
+    </row>
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>692</v>
       </c>
@@ -48039,8 +48685,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y546" s="26"/>
+    </row>
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>694</v>
       </c>
@@ -48082,8 +48729,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y547" s="26"/>
+    </row>
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1492</v>
       </c>
@@ -48125,8 +48773,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y548" s="26"/>
+    </row>
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>697</v>
       </c>
@@ -48168,8 +48817,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y549" s="26"/>
+    </row>
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>699</v>
       </c>
@@ -48211,8 +48861,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y550" s="26"/>
+    </row>
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>702</v>
       </c>
@@ -48275,8 +48926,9 @@
       <c r="W551" s="18">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y551" s="26"/>
+    </row>
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>704</v>
       </c>
@@ -48339,8 +48991,11 @@
       <c r="W552" s="18">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y552" s="27">
+        <v>3.5200000000000001E-13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>1494</v>
       </c>
@@ -48385,8 +49040,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y553" s="26"/>
+    </row>
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>706</v>
       </c>
@@ -48449,8 +49105,11 @@
       <c r="W554" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y554" s="27">
+        <v>8.3999999999999995E-14</v>
+      </c>
+    </row>
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>708</v>
       </c>
@@ -48495,8 +49154,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y555" s="26"/>
+    </row>
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>710</v>
       </c>
@@ -48538,8 +49198,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y556" s="26"/>
+    </row>
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>713</v>
       </c>
@@ -48581,8 +49242,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y557" s="26"/>
+    </row>
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>715</v>
       </c>
@@ -48624,8 +49286,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y558" s="26"/>
+    </row>
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1497</v>
       </c>
@@ -48667,8 +49330,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y559" s="26"/>
+    </row>
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>717</v>
       </c>
@@ -48710,8 +49374,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y560" s="26"/>
+    </row>
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>719</v>
       </c>
@@ -48753,8 +49418,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y561" s="26"/>
+    </row>
+    <row r="562" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>721</v>
       </c>
@@ -48796,8 +49462,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y562" s="26"/>
+    </row>
+    <row r="563" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>285</v>
       </c>
@@ -48842,8 +49509,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y563" s="26"/>
+    </row>
+    <row r="564" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>287</v>
       </c>
@@ -48891,8 +49559,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y564" s="26"/>
+    </row>
+    <row r="565" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1328</v>
       </c>
@@ -48930,8 +49599,9 @@
         <v>0</v>
       </c>
       <c r="Q565" s="11"/>
-    </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y565" s="26"/>
+    </row>
+    <row r="566" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>289</v>
       </c>
@@ -48997,8 +49667,11 @@
       <c r="W566" s="18">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y566" s="27">
+        <v>3.4000000000000002E-13</v>
+      </c>
+    </row>
+    <row r="567" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>291</v>
       </c>
@@ -49064,8 +49737,9 @@
       <c r="W567" s="18">
         <v>25</v>
       </c>
-    </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y567" s="26"/>
+    </row>
+    <row r="568" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>294</v>
       </c>
@@ -49131,8 +49805,9 @@
       <c r="W568" s="18">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y568" s="26"/>
+    </row>
+    <row r="569" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>296</v>
       </c>
@@ -49177,8 +49852,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y569" s="26"/>
+    </row>
+    <row r="570" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>416</v>
       </c>
@@ -49223,8 +49899,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y570" s="26"/>
+    </row>
+    <row r="571" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>418</v>
       </c>
@@ -49269,8 +49946,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y571" s="26"/>
+    </row>
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1373</v>
       </c>
@@ -49315,8 +49993,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y572" s="26"/>
+    </row>
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1376</v>
       </c>
@@ -49382,8 +50061,11 @@
       <c r="W573" s="18">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y573" s="27">
+        <v>6.4000000000000005E-14</v>
+      </c>
+    </row>
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>420</v>
       </c>
@@ -49431,8 +50113,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y574" s="26"/>
+    </row>
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>422</v>
       </c>
@@ -49477,8 +50160,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y575" s="26"/>
+    </row>
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1378</v>
       </c>
@@ -49523,8 +50207,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y576" s="26"/>
+    </row>
+    <row r="577" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>424</v>
       </c>
@@ -49569,8 +50254,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y577" s="26"/>
+    </row>
+    <row r="578" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>243</v>
       </c>
@@ -49636,8 +50322,9 @@
       <c r="W578" s="18">
         <v>85</v>
       </c>
-    </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y578" s="26"/>
+    </row>
+    <row r="579" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>246</v>
       </c>
@@ -49685,8 +50372,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y579" s="26"/>
+    </row>
+    <row r="580" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>888</v>
       </c>
@@ -49728,8 +50416,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y580" s="26"/>
+    </row>
+    <row r="581" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>890</v>
       </c>
@@ -49771,8 +50460,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y581" s="26"/>
+    </row>
+    <row r="582" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>893</v>
       </c>
@@ -49814,8 +50504,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y582" s="26"/>
+    </row>
+    <row r="583" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>895</v>
       </c>
@@ -49860,8 +50551,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y583" s="26"/>
+    </row>
+    <row r="584" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>22</v>
       </c>
@@ -49903,8 +50595,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y584" s="26"/>
+    </row>
+    <row r="585" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>897</v>
       </c>
@@ -49967,8 +50660,11 @@
       <c r="W585" s="18" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y585" s="27">
+        <v>3.1999999999999999E-15</v>
+      </c>
+    </row>
+    <row r="586" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>900</v>
       </c>
@@ -50031,8 +50727,9 @@
       <c r="W586" s="18">
         <v>19</v>
       </c>
-    </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y586" s="26"/>
+    </row>
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>902</v>
       </c>
@@ -50074,8 +50771,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y587" s="26"/>
+    </row>
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>904</v>
       </c>
@@ -50117,8 +50815,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y588" s="26"/>
+    </row>
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1481</v>
       </c>
@@ -50160,8 +50859,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y589" s="26"/>
+    </row>
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>666</v>
       </c>
@@ -50203,8 +50903,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y590" s="26"/>
+    </row>
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>668</v>
       </c>
@@ -50267,8 +50968,11 @@
       <c r="W591" s="18">
         <v>19</v>
       </c>
-    </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y591" s="27">
+        <v>6.8000000000000001E-14</v>
+      </c>
+    </row>
+    <row r="592" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1483</v>
       </c>
@@ -50313,8 +51017,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y592" s="26"/>
+    </row>
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1486</v>
       </c>
@@ -50359,8 +51064,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y593" s="26"/>
+    </row>
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>670</v>
       </c>
@@ -50402,8 +51108,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y594" s="26"/>
+    </row>
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1489</v>
       </c>
@@ -50448,8 +51155,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y595" s="26"/>
+    </row>
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>672</v>
       </c>
@@ -50494,8 +51202,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y596" s="26"/>
+    </row>
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>674</v>
       </c>
@@ -50537,8 +51246,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y597" s="26"/>
+    </row>
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>677</v>
       </c>
@@ -50601,8 +51311,9 @@
       <c r="W598" s="18">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y598" s="26"/>
+    </row>
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>679</v>
       </c>
@@ -50647,8 +51358,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y599" s="26"/>
+    </row>
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>681</v>
       </c>
@@ -50690,8 +51402,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y600" s="26"/>
+    </row>
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>683</v>
       </c>
@@ -50733,8 +51446,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y601" s="26"/>
+    </row>
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>480</v>
       </c>
@@ -50782,8 +51496,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y602" s="26"/>
+    </row>
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>482</v>
       </c>
@@ -50831,8 +51546,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y603" s="26"/>
+    </row>
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>484</v>
       </c>
@@ -50883,8 +51599,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y604" s="26"/>
+    </row>
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>486</v>
       </c>
@@ -50932,8 +51649,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y605" s="26"/>
+    </row>
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1389</v>
       </c>
@@ -51002,8 +51720,11 @@
       <c r="W606" s="18">
         <v>24</v>
       </c>
-    </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y606" s="27">
+        <v>8.0999999999999996E-14</v>
+      </c>
+    </row>
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1391</v>
       </c>
@@ -51066,8 +51787,9 @@
       <c r="V607" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y607" s="26"/>
+    </row>
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1395</v>
       </c>
@@ -51130,8 +51852,9 @@
       <c r="V608" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y608" s="26"/>
+    </row>
+    <row r="609" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>488</v>
       </c>
@@ -51200,8 +51923,11 @@
       <c r="W609" s="18">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y609" s="27">
+        <v>9.4000000000000003E-14</v>
+      </c>
+    </row>
+    <row r="610" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>490</v>
       </c>
@@ -51270,8 +51996,11 @@
       <c r="W610" s="18">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y610" s="27">
+        <v>1.4000000000000001E-13</v>
+      </c>
+    </row>
+    <row r="611" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>492</v>
       </c>
@@ -51334,8 +52063,9 @@
       <c r="V611" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y611" s="26"/>
+    </row>
+    <row r="612" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>495</v>
       </c>
@@ -51398,8 +52128,9 @@
       <c r="V612" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y612" s="26"/>
+    </row>
+    <row r="613" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1052</v>
       </c>
@@ -51441,8 +52172,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y613" s="26"/>
+    </row>
+    <row r="614" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1054</v>
       </c>
@@ -51484,8 +52216,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y614" s="26"/>
+    </row>
+    <row r="615" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1056</v>
       </c>
@@ -51527,8 +52260,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y615" s="26"/>
+    </row>
+    <row r="616" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1058</v>
       </c>
@@ -51570,8 +52304,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y616" s="26"/>
+    </row>
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1060</v>
       </c>
@@ -51613,8 +52348,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y617" s="26"/>
+    </row>
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1062</v>
       </c>
@@ -51656,8 +52392,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y618" s="26"/>
+    </row>
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1064</v>
       </c>
@@ -51699,8 +52436,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y619" s="26"/>
+    </row>
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1655</v>
       </c>
@@ -51746,8 +52484,9 @@
         <v>10000000</v>
       </c>
       <c r="X620" s="18"/>
-    </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y620" s="26"/>
+    </row>
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1657</v>
       </c>
@@ -51796,8 +52535,9 @@
         <v>1000000</v>
       </c>
       <c r="X621" s="18"/>
-    </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y621" s="26"/>
+    </row>
+    <row r="622" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>1659</v>
       </c>
@@ -51840,8 +52580,9 @@
         <v>10000000</v>
       </c>
       <c r="X622" s="18"/>
-    </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y622" s="26"/>
+    </row>
+    <row r="623" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1066</v>
       </c>
@@ -51904,8 +52645,11 @@
       <c r="W623" s="18">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="624" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y623" s="27">
+        <v>2.37E-13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1662</v>
       </c>
@@ -51948,6 +52692,7 @@
         <v>1000000</v>
       </c>
       <c r="X624" s="18"/>
+      <c r="Y624" s="26"/>
     </row>
     <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
@@ -52648,7 +53393,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>957</v>
       </c>
@@ -52711,8 +53456,11 @@
       <c r="W641" s="18">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y641" s="27">
+        <v>2.1800000000000001E-13</v>
+      </c>
+    </row>
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>959</v>
       </c>
@@ -52754,8 +53502,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y642" s="26"/>
+    </row>
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>569</v>
       </c>
@@ -52800,8 +53549,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y643" s="26"/>
+    </row>
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>571</v>
       </c>
@@ -52846,8 +53596,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y644" s="26"/>
+    </row>
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>550</v>
       </c>
@@ -52892,8 +53643,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y645" s="26"/>
+    </row>
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1427</v>
       </c>
@@ -52938,8 +53690,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y646" s="26"/>
+    </row>
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>552</v>
       </c>
@@ -52984,8 +53737,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y647" s="26"/>
+    </row>
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>554</v>
       </c>
@@ -53030,8 +53784,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y648" s="26"/>
+    </row>
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>557</v>
       </c>
@@ -53076,8 +53831,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y649" s="26"/>
+    </row>
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>559</v>
       </c>
@@ -53125,8 +53881,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y650" s="26"/>
+    </row>
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>562</v>
       </c>
@@ -53186,8 +53943,9 @@
       <c r="V651" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y651" s="26"/>
+    </row>
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1430</v>
       </c>
@@ -53235,8 +53993,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y652" s="26"/>
+    </row>
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1433</v>
       </c>
@@ -53302,8 +54061,11 @@
       <c r="W653" s="18" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y653" s="27">
+        <v>2.7000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1436</v>
       </c>
@@ -53369,8 +54131,11 @@
       <c r="W654" s="18">
         <v>25</v>
       </c>
-    </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y654" s="27">
+        <v>1.4999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>565</v>
       </c>
@@ -53418,8 +54183,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y655" s="26"/>
+    </row>
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>567</v>
       </c>
@@ -53485,8 +54251,11 @@
       <c r="W656" s="18">
         <v>21</v>
       </c>
-    </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y656" s="27">
+        <v>1.4E-14</v>
+      </c>
+    </row>
+    <row r="657" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1439</v>
       </c>
@@ -53546,8 +54315,9 @@
       <c r="V657" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y657" s="26"/>
+    </row>
+    <row r="658" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>723</v>
       </c>
@@ -53589,8 +54359,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y658" s="26"/>
+    </row>
+    <row r="659" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1500</v>
       </c>
@@ -53635,8 +54406,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y659" s="26"/>
+    </row>
+    <row r="660" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1502</v>
       </c>
@@ -53681,8 +54453,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y660" s="26"/>
+    </row>
+    <row r="661" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1505</v>
       </c>
@@ -53724,8 +54497,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y661" s="26"/>
+    </row>
+    <row r="662" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1507</v>
       </c>
@@ -53788,8 +54562,11 @@
       <c r="W662" s="18">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y662" s="27">
+        <v>3.8999999999999998E-14</v>
+      </c>
+    </row>
+    <row r="663" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1510</v>
       </c>
@@ -53852,8 +54629,11 @@
       <c r="W663" s="18">
         <v>15</v>
       </c>
-    </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y663" s="27">
+        <v>2.3E-14</v>
+      </c>
+    </row>
+    <row r="664" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>725</v>
       </c>
@@ -53916,8 +54696,9 @@
       <c r="W664" s="18">
         <v>81</v>
       </c>
-    </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y664" s="26"/>
+    </row>
+    <row r="665" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1513</v>
       </c>
@@ -53980,8 +54761,11 @@
       <c r="W665" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y665" s="27">
+        <v>1.4999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="666" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>728</v>
       </c>
@@ -54038,8 +54822,9 @@
       <c r="V666" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y666" s="26"/>
+    </row>
+    <row r="667" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>1516</v>
       </c>
@@ -54105,8 +54890,11 @@
       <c r="W667" s="18">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y667" s="27">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="668" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>731</v>
       </c>
@@ -54148,8 +54936,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y668" s="26"/>
+    </row>
+    <row r="669" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1519</v>
       </c>
@@ -54212,8 +55001,9 @@
       <c r="W669" s="18">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y669" s="26"/>
+    </row>
+    <row r="670" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>733</v>
       </c>
@@ -54276,8 +55066,9 @@
       <c r="W670" s="18">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y670" s="26"/>
+    </row>
+    <row r="671" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>735</v>
       </c>
@@ -54319,8 +55110,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y671" s="26"/>
+    </row>
+    <row r="672" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>737</v>
       </c>
@@ -54365,8 +55157,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="673" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y672" s="26"/>
+    </row>
+    <row r="673" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>740</v>
       </c>
@@ -54418,8 +55211,9 @@
       <c r="V673" s="18"/>
       <c r="W673" s="18"/>
       <c r="X673" s="8"/>
-    </row>
-    <row r="674" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y673" s="28"/>
+    </row>
+    <row r="674" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>1835</v>
       </c>
@@ -54453,8 +55247,9 @@
       <c r="V674" s="18"/>
       <c r="W674" s="18"/>
       <c r="X674" s="8"/>
-    </row>
-    <row r="675" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y674" s="28"/>
+    </row>
+    <row r="675" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>61</v>
       </c>
@@ -54508,8 +55303,9 @@
       <c r="V675" s="18"/>
       <c r="W675" s="18"/>
       <c r="X675" s="8"/>
-    </row>
-    <row r="676" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y675" s="28"/>
+    </row>
+    <row r="676" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>63</v>
       </c>
@@ -54578,8 +55374,9 @@
         <v>1.6</v>
       </c>
       <c r="X676" s="8"/>
-    </row>
-    <row r="677" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y676" s="28"/>
+    </row>
+    <row r="677" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>65</v>
       </c>
@@ -54648,8 +55445,11 @@
         <v>0.19</v>
       </c>
       <c r="X677" s="8"/>
-    </row>
-    <row r="678" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y677" s="29">
+        <v>4.4499999999999998E-12</v>
+      </c>
+    </row>
+    <row r="678" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>69</v>
       </c>
@@ -54718,8 +55518,11 @@
         <v>1877</v>
       </c>
       <c r="X678" s="8"/>
-    </row>
-    <row r="679" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y678" s="29">
+        <v>5.4800000000000001E-12</v>
+      </c>
+    </row>
+    <row r="679" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>73</v>
       </c>
@@ -54788,8 +55591,11 @@
         <v>75</v>
       </c>
       <c r="X679" s="8"/>
-    </row>
-    <row r="680" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y679" s="29">
+        <v>7.6099999999999999E-13</v>
+      </c>
+    </row>
+    <row r="680" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1252</v>
       </c>
@@ -54858,8 +55664,9 @@
         <v>40</v>
       </c>
       <c r="X680" s="8"/>
-    </row>
-    <row r="681" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y680" s="28"/>
+    </row>
+    <row r="681" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>77</v>
       </c>
@@ -54928,8 +55735,11 @@
         <v>79</v>
       </c>
       <c r="X681" s="8"/>
-    </row>
-    <row r="682" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y681" s="29">
+        <v>5.3099999999999998E-12</v>
+      </c>
+    </row>
+    <row r="682" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1255</v>
       </c>
@@ -54998,8 +55808,9 @@
         <v>4</v>
       </c>
       <c r="X682" s="8"/>
-    </row>
-    <row r="683" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y682" s="28"/>
+    </row>
+    <row r="683" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="8" t="s">
         <v>1837</v>
       </c>
@@ -55033,8 +55844,9 @@
       <c r="V683" s="18"/>
       <c r="W683" s="18"/>
       <c r="X683" s="8"/>
-    </row>
-    <row r="684" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y683" s="28"/>
+    </row>
+    <row r="684" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1333</v>
       </c>
@@ -55091,8 +55903,9 @@
       <c r="V684" s="18"/>
       <c r="W684" s="18"/>
       <c r="X684" s="8"/>
-    </row>
-    <row r="685" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y684" s="28"/>
+    </row>
+    <row r="685" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>298</v>
       </c>
@@ -55146,8 +55959,9 @@
       <c r="V685" s="18"/>
       <c r="W685" s="18"/>
       <c r="X685" s="8"/>
-    </row>
-    <row r="686" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y685" s="28"/>
+    </row>
+    <row r="686" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1166</v>
       </c>
@@ -55199,8 +56013,9 @@
       <c r="V686" s="18"/>
       <c r="W686" s="18"/>
       <c r="X686" s="8"/>
-    </row>
-    <row r="687" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y686" s="28"/>
+    </row>
+    <row r="687" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1168</v>
       </c>
@@ -55252,8 +56067,9 @@
       <c r="V687" s="18"/>
       <c r="W687" s="18"/>
       <c r="X687" s="8"/>
-    </row>
-    <row r="688" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y687" s="28"/>
+    </row>
+    <row r="688" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1171</v>
       </c>
@@ -55305,8 +56121,9 @@
       <c r="V688" s="18"/>
       <c r="W688" s="18"/>
       <c r="X688" s="8"/>
-    </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y688" s="28"/>
+    </row>
+    <row r="689" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1173</v>
       </c>
@@ -55348,8 +56165,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y689" s="26"/>
+    </row>
+    <row r="690" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>1175</v>
       </c>
@@ -55391,8 +56209,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y690" s="26"/>
+    </row>
+    <row r="691" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1754</v>
       </c>
@@ -55434,8 +56253,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y691" s="26"/>
+    </row>
+    <row r="692" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>1757</v>
       </c>
@@ -55477,8 +56297,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y692" s="26"/>
+    </row>
+    <row r="693" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1177</v>
       </c>
@@ -55535,8 +56356,9 @@
       <c r="V693" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y693" s="26"/>
+    </row>
+    <row r="694" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1759</v>
       </c>
@@ -55593,8 +56415,9 @@
       <c r="V694" s="18">
         <v>100</v>
       </c>
-    </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y694" s="26"/>
+    </row>
+    <row r="695" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1180</v>
       </c>
@@ -55657,8 +56480,9 @@
       <c r="W695" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y695" s="26"/>
+    </row>
+    <row r="696" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1182</v>
       </c>
@@ -55721,8 +56545,11 @@
       <c r="W696" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y696" s="27">
+        <v>3.8000000000000002E-14</v>
+      </c>
+    </row>
+    <row r="697" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>992</v>
       </c>
@@ -55767,8 +56594,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y697" s="26"/>
+    </row>
+    <row r="698" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>994</v>
       </c>
@@ -55813,8 +56641,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y698" s="26"/>
+    </row>
+    <row r="699" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>1621</v>
       </c>
@@ -55862,8 +56691,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y699" s="26"/>
+    </row>
+    <row r="700" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>996</v>
       </c>
@@ -55929,8 +56759,11 @@
       <c r="W700" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y700" s="27">
+        <v>5.3000000000000001E-14</v>
+      </c>
+    </row>
+    <row r="701" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>998</v>
       </c>
@@ -55996,8 +56829,11 @@
       <c r="W701" s="18" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y701" s="27">
+        <v>4.1999999999999996E-15</v>
+      </c>
+    </row>
+    <row r="702" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>1000</v>
       </c>
@@ -56042,8 +56878,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y702" s="26"/>
+    </row>
+    <row r="703" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>1002</v>
       </c>
@@ -56088,8 +56925,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y703" s="26"/>
+    </row>
+    <row r="704" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>1004</v>
       </c>
@@ -56134,8 +56972,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y704" s="26"/>
+    </row>
+    <row r="705" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>1847</v>
       </c>
@@ -56152,8 +56991,9 @@
         <v>26</v>
       </c>
       <c r="Q705" s="11"/>
-    </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y705" s="26"/>
+    </row>
+    <row r="706" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>87</v>
       </c>
@@ -56219,8 +57059,9 @@
       <c r="W706" s="18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y706" s="26"/>
+    </row>
+    <row r="707" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>90</v>
       </c>
@@ -56286,8 +57127,9 @@
       <c r="W707" s="18">
         <v>49</v>
       </c>
-    </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y707" s="26"/>
+    </row>
+    <row r="708" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>94</v>
       </c>
@@ -56353,8 +57195,11 @@
       <c r="W708" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y708" s="27">
+        <v>5.3099999999999998E-12</v>
+      </c>
+    </row>
+    <row r="709" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>98</v>
       </c>
@@ -56420,8 +57265,11 @@
       <c r="W709" s="18">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y709" s="27">
+        <v>7.8000000000000001E-13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>101</v>
       </c>
@@ -56487,8 +57335,11 @@
       <c r="W710" s="18">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y710" s="27">
+        <v>7.7500000000000003E-13</v>
+      </c>
+    </row>
+    <row r="711" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>104</v>
       </c>
@@ -56554,8 +57405,11 @@
       <c r="W711" s="18">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y711" s="27">
+        <v>7.6799999999999996E-13</v>
+      </c>
+    </row>
+    <row r="712" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>106</v>
       </c>
@@ -56621,8 +57475,11 @@
       <c r="W712" s="18">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y712" s="27">
+        <v>7.2900000000000002E-13</v>
+      </c>
+    </row>
+    <row r="713" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>1264</v>
       </c>
@@ -56685,8 +57542,9 @@
       <c r="W713" s="18">
         <v>18</v>
       </c>
-    </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y713" s="26"/>
+    </row>
+    <row r="714" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>109</v>
       </c>
@@ -56752,8 +57610,11 @@
       <c r="W714" s="18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y714" s="27">
+        <v>8.2400000000000002E-13</v>
+      </c>
+    </row>
+    <row r="715" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>1266</v>
       </c>
@@ -56798,8 +57659,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y715" s="26"/>
+    </row>
+    <row r="716" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>1268</v>
       </c>
@@ -56862,8 +57724,9 @@
       <c r="W716" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y716" s="26"/>
+    </row>
+    <row r="717" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>1841</v>
       </c>
@@ -56883,8 +57746,9 @@
         <v>-1</v>
       </c>
       <c r="Q717" s="11"/>
-    </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y717" s="26"/>
+    </row>
+    <row r="718" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A718" s="8" t="s">
         <v>1845</v>
       </c>
@@ -56904,8 +57768,9 @@
         <v>-1</v>
       </c>
       <c r="Q718" s="11"/>
-    </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y718" s="26"/>
+    </row>
+    <row r="719" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>1843</v>
       </c>
@@ -56922,8 +57787,9 @@
         <v>26</v>
       </c>
       <c r="Q719" s="11"/>
-    </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y719" s="26"/>
+    </row>
+    <row r="720" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>300</v>
       </c>
@@ -56968,8 +57834,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="721" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y720" s="26"/>
+    </row>
+    <row r="721" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>302</v>
       </c>
@@ -57035,8 +57902,9 @@
       <c r="W721" s="18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="722" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y721" s="26"/>
+    </row>
+    <row r="722" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>1335</v>
       </c>
@@ -57084,8 +57952,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="723" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y722" s="26"/>
+    </row>
+    <row r="723" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>1665</v>
       </c>
@@ -57127,8 +57996,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="724" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y723" s="26"/>
+    </row>
+    <row r="724" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>1076</v>
       </c>
@@ -57170,8 +58040,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="725" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y724" s="26"/>
+    </row>
+    <row r="725" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>1667</v>
       </c>
@@ -57216,8 +58087,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="726" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y725" s="26"/>
+    </row>
+    <row r="726" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>1669</v>
       </c>
@@ -57259,8 +58131,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="727" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y726" s="26"/>
+    </row>
+    <row r="727" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>1078</v>
       </c>
@@ -57323,8 +58196,11 @@
       <c r="W727" s="18" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="728" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y727" s="27">
+        <v>7.2000000000000002E-15</v>
+      </c>
+    </row>
+    <row r="728" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>1080</v>
       </c>
@@ -57387,8 +58263,11 @@
       <c r="W728" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="729" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y728" s="27">
+        <v>2E-14</v>
+      </c>
+    </row>
+    <row r="729" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>1083</v>
       </c>
@@ -57451,8 +58330,9 @@
       <c r="W729" s="18">
         <v>21</v>
       </c>
-    </row>
-    <row r="730" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y729" s="26"/>
+    </row>
+    <row r="730" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>1086</v>
       </c>
@@ -57497,8 +58377,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="731" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y730" s="26"/>
+    </row>
+    <row r="731" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>1860</v>
       </c>
@@ -57529,8 +58410,9 @@
         <v>100000</v>
       </c>
       <c r="X731" s="18"/>
-    </row>
-    <row r="732" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y731" s="26"/>
+    </row>
+    <row r="732" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>769</v>
       </c>
@@ -57593,8 +58475,9 @@
       <c r="V732" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="733" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y732" s="26"/>
+    </row>
+    <row r="733" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>1530</v>
       </c>
@@ -57642,8 +58525,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="734" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y733" s="26"/>
+    </row>
+    <row r="734" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>772</v>
       </c>
@@ -57706,8 +58590,9 @@
       <c r="V734" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="735" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y734" s="26"/>
+    </row>
+    <row r="735" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>1533</v>
       </c>
@@ -57755,8 +58640,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="736" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y735" s="26"/>
+    </row>
+    <row r="736" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>775</v>
       </c>
@@ -57804,8 +58690,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="737" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y736" s="26"/>
+    </row>
+    <row r="737" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>777</v>
       </c>
@@ -57853,8 +58740,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="738" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y737" s="26"/>
+    </row>
+    <row r="738" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>498</v>
       </c>
@@ -57902,8 +58790,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="739" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y738" s="26"/>
+    </row>
+    <row r="739" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>1399</v>
       </c>
@@ -57951,8 +58840,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="740" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y739" s="26"/>
+    </row>
+    <row r="740" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>500</v>
       </c>
@@ -58003,8 +58893,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="741" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y740" s="26"/>
+    </row>
+    <row r="741" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>502</v>
       </c>
@@ -58055,8 +58946,11 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="742" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y741" s="27">
+        <v>4.1300000000000001E-13</v>
+      </c>
+    </row>
+    <row r="742" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>504</v>
       </c>
@@ -58125,8 +59019,9 @@
       <c r="W742" s="18">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="743" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y742" s="26"/>
+    </row>
+    <row r="743" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>1402</v>
       </c>
@@ -58171,8 +59066,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="744" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y743" s="26"/>
+    </row>
+    <row r="744" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>506</v>
       </c>
@@ -58238,8 +59134,11 @@
       <c r="W744" s="18">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="745" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y744" s="27">
+        <v>9.7000000000000003E-14</v>
+      </c>
+    </row>
+    <row r="745" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>1405</v>
       </c>
@@ -58287,8 +59186,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="746" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y745" s="26"/>
+    </row>
+    <row r="746" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>508</v>
       </c>
@@ -58355,8 +59255,9 @@
         <v>27</v>
       </c>
       <c r="X746" s="21"/>
-    </row>
-    <row r="747" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y746" s="26"/>
+    </row>
+    <row r="747" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>511</v>
       </c>
@@ -58422,8 +59323,9 @@
       <c r="W747" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="748" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y747" s="26"/>
+    </row>
+    <row r="748" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>514</v>
       </c>
@@ -58468,8 +59370,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="749" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y748" s="26"/>
+    </row>
+    <row r="749" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>516</v>
       </c>
@@ -58514,8 +59417,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="750" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y749" s="26"/>
+    </row>
+    <row r="750" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>1006</v>
       </c>
@@ -58560,8 +59464,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="751" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y750" s="26"/>
+    </row>
+    <row r="751" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>1623</v>
       </c>
@@ -58606,8 +59511,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="752" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y751" s="26"/>
+    </row>
+    <row r="752" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>1008</v>
       </c>
@@ -58652,8 +59558,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="753" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y752" s="26"/>
+    </row>
+    <row r="753" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>1625</v>
       </c>
@@ -58702,8 +59609,9 @@
         <v>10000000</v>
       </c>
       <c r="X753" s="18"/>
-    </row>
-    <row r="754" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y753" s="26"/>
+    </row>
+    <row r="754" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>1010</v>
       </c>
@@ -58769,8 +59677,9 @@
       <c r="W754" s="18">
         <v>31</v>
       </c>
-    </row>
-    <row r="755" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y754" s="26"/>
+    </row>
+    <row r="755" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>1013</v>
       </c>
@@ -58815,8 +59724,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="756" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y755" s="26"/>
+    </row>
+    <row r="756" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>1015</v>
       </c>
@@ -58861,8 +59771,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="757" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y756" s="26"/>
+    </row>
+    <row r="757" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>361</v>
       </c>
@@ -58907,8 +59818,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="758" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y757" s="26"/>
+    </row>
+    <row r="758" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>363</v>
       </c>
@@ -58953,8 +59865,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="759" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y758" s="26"/>
+    </row>
+    <row r="759" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>365</v>
       </c>
@@ -59020,8 +59933,11 @@
       <c r="W759" s="18">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="760" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y759" s="27">
+        <v>9.2999999999999995E-14</v>
+      </c>
+    </row>
+    <row r="760" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>367</v>
       </c>
@@ -59069,8 +59985,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="761" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y760" s="26"/>
+    </row>
+    <row r="761" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>1360</v>
       </c>
@@ -59136,8 +60053,9 @@
       <c r="W761" s="18">
         <v>41</v>
       </c>
-    </row>
-    <row r="762" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y761" s="26"/>
+    </row>
+    <row r="762" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>369</v>
       </c>
@@ -59182,8 +60100,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="763" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y762" s="26"/>
+    </row>
+    <row r="763" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>372</v>
       </c>
@@ -59228,8 +60147,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="764" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y763" s="26"/>
+    </row>
+    <row r="764" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>1408</v>
       </c>
@@ -59271,8 +60191,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="765" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y764" s="26"/>
+    </row>
+    <row r="765" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>1410</v>
       </c>
@@ -59317,8 +60238,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="766" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y765" s="26"/>
+    </row>
+    <row r="766" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>518</v>
       </c>
@@ -59360,8 +60282,9 @@
         <f>VLOOKUP(D:D,[1]Лист3!$A$1:$B$777,2,FALSE)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="767" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y766" s="26"/>
+    </row>
+    <row r="767" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>520</v>
       </c>
@@ -59424,8 +60347,11 @@
       <c r="W767" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="768" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y767" s="27">
+        <v>6.7E-15</v>
+      </c>
+    </row>
+    <row r="768" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>522</v>
       </c>
@@ -59481,6 +60407,9 @@
       </c>
       <c r="V768" s="18">
         <v>1</v>
+      </c>
+      <c r="Y768" s="27">
+        <v>1.37E-13</v>
       </c>
     </row>
     <row r="769" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -59923,11 +60852,7 @@
       <c r="X782" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X780">
-    <sortState ref="A2:X780">
-      <sortCondition ref="D1:D780"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Y780"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/data/Spravochniki/R.xlsx
+++ b/data/Spravochniki/R.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Y$780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Y$781</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="2167">
   <si>
     <t>Name_RN-Наименование радионуклида (рус)</t>
   </si>
@@ -6535,6 +6535,9 @@
   </si>
   <si>
     <t>Переводной коэффициент Ki, Вт/Бк</t>
+  </si>
+  <si>
+    <t>сумма альфа-активных искусственных нуклидов</t>
   </si>
 </sst>
 </file>
@@ -19406,12 +19409,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y782"/>
+  <dimension ref="A1:Y783"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A755" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="B768" sqref="B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60513,7 +60516,7 @@
       <c r="W770" s="18"/>
       <c r="X770" s="8"/>
     </row>
-    <row r="771" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>1850</v>
       </c>
@@ -60536,8 +60539,8 @@
       <c r="L771" s="2"/>
       <c r="M771" s="2"/>
       <c r="N771" s="2"/>
-      <c r="P771" s="11"/>
-      <c r="Q771" s="11"/>
+      <c r="P771" s="29"/>
+      <c r="Q771" s="29"/>
       <c r="R771" s="18"/>
       <c r="S771" s="18"/>
       <c r="T771" s="18"/>
@@ -60548,10 +60551,10 @@
     </row>
     <row r="772" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
-        <v>1851</v>
+        <v>2166</v>
       </c>
       <c r="B772" s="2">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="C772" s="2">
         <v>100003</v>
@@ -60577,22 +60580,24 @@
       <c r="U772" s="18"/>
       <c r="V772" s="18"/>
       <c r="W772" s="18"/>
-      <c r="X772" s="18"/>
+      <c r="X772" s="8"/>
     </row>
     <row r="773" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B773" s="2">
-        <v>500000</v>
-      </c>
-      <c r="C773" s="2"/>
+        <v>100001</v>
+      </c>
+      <c r="C773" s="2">
+        <v>100003</v>
+      </c>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
       <c r="G773" s="2"/>
       <c r="H773" s="2" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
@@ -60612,10 +60617,10 @@
     </row>
     <row r="774" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B774" s="2">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -60643,14 +60648,12 @@
     </row>
     <row r="775" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B775" s="2">
-        <v>300000</v>
-      </c>
-      <c r="C775" s="2">
-        <v>300000</v>
-      </c>
+        <v>400000</v>
+      </c>
+      <c r="C775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
@@ -60676,13 +60679,13 @@
     </row>
     <row r="776" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B776" s="2">
-        <v>200003</v>
+        <v>300000</v>
       </c>
       <c r="C776" s="2">
-        <v>200003</v>
+        <v>300000</v>
       </c>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -60709,10 +60712,10 @@
     </row>
     <row r="777" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B777" s="2">
-        <v>200002</v>
+        <v>200003</v>
       </c>
       <c r="C777" s="2">
         <v>200003</v>
@@ -60742,10 +60745,10 @@
     </row>
     <row r="778" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B778" s="2">
-        <v>200001</v>
+        <v>200002</v>
       </c>
       <c r="C778" s="2">
         <v>200003</v>
@@ -60775,15 +60778,21 @@
     </row>
     <row r="779" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B779" s="2"/>
-      <c r="C779" s="2"/>
+        <v>1857</v>
+      </c>
+      <c r="B779" s="2">
+        <v>200001</v>
+      </c>
+      <c r="C779" s="2">
+        <v>200003</v>
+      </c>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
       <c r="G779" s="2"/>
-      <c r="H779" s="2"/>
+      <c r="H779" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
@@ -60791,6 +60800,7 @@
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
       <c r="P779" s="11"/>
+      <c r="Q779" s="11"/>
       <c r="R779" s="18"/>
       <c r="S779" s="18"/>
       <c r="T779" s="18"/>
@@ -60801,7 +60811,7 @@
     </row>
     <row r="780" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -60825,34 +60835,60 @@
       <c r="W780" s="18"/>
       <c r="X780" s="18"/>
     </row>
-    <row r="782" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A782" s="2" t="s">
+    <row r="781" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B781" s="2"/>
+      <c r="C781" s="2"/>
+      <c r="D781" s="2"/>
+      <c r="E781" s="2"/>
+      <c r="F781" s="2"/>
+      <c r="G781" s="2"/>
+      <c r="H781" s="2"/>
+      <c r="I781" s="2"/>
+      <c r="J781" s="2"/>
+      <c r="K781" s="2"/>
+      <c r="L781" s="2"/>
+      <c r="M781" s="2"/>
+      <c r="N781" s="2"/>
+      <c r="P781" s="11"/>
+      <c r="R781" s="18"/>
+      <c r="S781" s="18"/>
+      <c r="T781" s="18"/>
+      <c r="U781" s="18"/>
+      <c r="V781" s="18"/>
+      <c r="W781" s="18"/>
+      <c r="X781" s="18"/>
+    </row>
+    <row r="783" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="B782" s="2"/>
-      <c r="C782" s="2"/>
-      <c r="D782" s="2"/>
-      <c r="E782" s="2"/>
-      <c r="F782" s="2"/>
-      <c r="G782" s="2"/>
-      <c r="H782" s="2"/>
-      <c r="I782" s="2"/>
-      <c r="J782" s="2"/>
-      <c r="K782" s="2"/>
-      <c r="L782" s="2"/>
-      <c r="M782" s="2"/>
-      <c r="N782" s="2"/>
-      <c r="P782" s="11"/>
-      <c r="R782" s="18"/>
-      <c r="S782" s="18"/>
-      <c r="T782" s="18"/>
-      <c r="U782" s="18"/>
-      <c r="V782" s="18"/>
-      <c r="W782" s="18"/>
-      <c r="X782" s="18"/>
+      <c r="B783" s="2"/>
+      <c r="C783" s="2"/>
+      <c r="D783" s="2"/>
+      <c r="E783" s="2"/>
+      <c r="F783" s="2"/>
+      <c r="G783" s="2"/>
+      <c r="H783" s="2"/>
+      <c r="I783" s="2"/>
+      <c r="J783" s="2"/>
+      <c r="K783" s="2"/>
+      <c r="L783" s="2"/>
+      <c r="M783" s="2"/>
+      <c r="N783" s="2"/>
+      <c r="P783" s="11"/>
+      <c r="R783" s="18"/>
+      <c r="S783" s="18"/>
+      <c r="T783" s="18"/>
+      <c r="U783" s="18"/>
+      <c r="V783" s="18"/>
+      <c r="W783" s="18"/>
+      <c r="X783" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y780"/>
+  <autoFilter ref="A1:Y781"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
